--- a/data_output/Excess Mortality/Countries/2020/2020_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_(30-34) - (35-39).xlsx
+++ b/data_output/Excess Mortality/Countries/2020/2020_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_(30-34) - (35-39).xlsx
@@ -658,7 +658,7 @@
     <t>28.8 (±12.3)</t>
   </si>
   <si>
-    <t>19.0 (±20.3)</t>
+    <t>20.0 (±20.3)</t>
   </si>
   <si>
     <t>62.0 (±33.0)</t>
@@ -751,7 +751,7 @@
     <t>8.0% (±3.6%)</t>
   </si>
   <si>
-    <t>3.3% (±3.5%)</t>
+    <t>3.5% (±3.6%)</t>
   </si>
   <si>
     <t>8.5% (±4.7%)</t>
@@ -844,7 +844,7 @@
     <t>4.7(±2.0)</t>
   </si>
   <si>
-    <t>2.5(±2.7)</t>
+    <t>2.7(±2.7)</t>
   </si>
   <si>
     <t>12.6(±6.6)</t>
@@ -1033,7 +1033,7 @@
     <t>61.6 (±14.9)</t>
   </si>
   <si>
-    <t>13.6 (±30.7)</t>
+    <t>14.6 (±30.7)</t>
   </si>
   <si>
     <t>58.0 (±38.4)</t>
@@ -1126,7 +1126,7 @@
     <t>11.4% (±3.0%)</t>
   </si>
   <si>
-    <t>1.6% (±3.5%)</t>
+    <t>1.7% (±3.5%)</t>
   </si>
   <si>
     <t>5.6% (±3.8%)</t>
@@ -1219,7 +1219,7 @@
     <t>5.1(±1.2)</t>
   </si>
   <si>
-    <t>0.9(±2.1)</t>
+    <t>1.0(±2.0)</t>
   </si>
   <si>
     <t>6.1(±4.0)</t>
@@ -4339,7 +4339,7 @@
         <v>534</v>
       </c>
       <c r="H3">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="I3">
         <v>572.9999999999999</v>
@@ -4360,16 +4360,16 @@
         <v>593.2999999999998</v>
       </c>
       <c r="O3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P3">
         <v>20.3</v>
       </c>
       <c r="Q3">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="R3">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="S3" t="s">
         <v>183</v>
@@ -4384,7 +4384,7 @@
         <v>750318</v>
       </c>
       <c r="W3">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="X3">
         <v>2.7</v>
@@ -6816,7 +6816,7 @@
         <v>799</v>
       </c>
       <c r="H3">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="I3">
         <v>864.4000000000002</v>
@@ -6837,13 +6837,13 @@
         <v>895.1000000000003</v>
       </c>
       <c r="O3">
-        <v>13.6</v>
+        <v>14.6</v>
       </c>
       <c r="P3">
         <v>30.7</v>
       </c>
       <c r="Q3">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="R3">
         <v>3.5</v>
@@ -6861,10 +6861,10 @@
         <v>1499416</v>
       </c>
       <c r="W3">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="X3">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y3" t="s">
         <v>400</v>

--- a/data_output/Excess Mortality/Countries/2020/2020_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_(30-34) - (35-39).xlsx
+++ b/data_output/Excess Mortality/Countries/2020/2020_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_(30-34) - (35-39).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="436">
   <si>
     <t>Sex</t>
   </si>
@@ -250,10 +250,10 @@
     <t>17.8 (±2.0)</t>
   </si>
   <si>
-    <t>344.8 (±10.6)</t>
-  </si>
-  <si>
-    <t>111.6 (±4.9)</t>
+    <t>345.2 (±9.8)</t>
+  </si>
+  <si>
+    <t>111.8 (±4.9)</t>
   </si>
   <si>
     <t>1288.4 (±28.5)</t>
@@ -286,7 +286,7 @@
     <t>32.8 (±15.5)</t>
   </si>
   <si>
-    <t>-5.4 (±13.7)</t>
+    <t>-9.4 (±13.7)</t>
   </si>
   <si>
     <t>-4.0 (±11.0)</t>
@@ -322,10 +322,10 @@
     <t>3.2 (±2.5)</t>
   </si>
   <si>
-    <t>-141.6 (±57.3)</t>
-  </si>
-  <si>
-    <t>-12.6 (±12.0)</t>
+    <t>-140.6 (±57.3)</t>
+  </si>
+  <si>
+    <t>-11.6 (±12.0)</t>
   </si>
   <si>
     <t>-0.8 (±0.6)</t>
@@ -343,10 +343,10 @@
     <t>2.2 (±2.0)</t>
   </si>
   <si>
-    <t>20.2 (±10.6)</t>
-  </si>
-  <si>
-    <t>-5.6 (±4.9)</t>
+    <t>20.8 (±9.8)</t>
+  </si>
+  <si>
+    <t>-4.8 (±4.9)</t>
   </si>
   <si>
     <t>154.6 (±28.5)</t>
@@ -367,7 +367,7 @@
     <t>-9.6 (±3.9)</t>
   </si>
   <si>
-    <t>26.4 (±42.4)</t>
+    <t>29.4 (±42.4)</t>
   </si>
   <si>
     <t>23.8 (±6.6)</t>
@@ -379,7 +379,7 @@
     <t>18.4% (±9.5%)</t>
   </si>
   <si>
-    <t>-1.9% (±4.4%)</t>
+    <t>-3.2% (±4.4%)</t>
   </si>
   <si>
     <t>-1.3% (±3.3%)</t>
@@ -415,10 +415,10 @@
     <t>41.0% (±34.2%)</t>
   </si>
   <si>
-    <t>-13.7% (±4.6%)</t>
-  </si>
-  <si>
-    <t>-12.7% (±9.3%)</t>
+    <t>-13.6% (±4.6%)</t>
+  </si>
+  <si>
+    <t>-11.6% (±9.5%)</t>
   </si>
   <si>
     <t>-100.0% (±0.0%)</t>
@@ -436,10 +436,10 @@
     <t>12.4% (±11.4%)</t>
   </si>
   <si>
-    <t>5.9% (±3.2%)</t>
-  </si>
-  <si>
-    <t>-5.0% (±4.0%)</t>
+    <t>6.0% (±2.9%)</t>
+  </si>
+  <si>
+    <t>-4.3% (±4.0%)</t>
   </si>
   <si>
     <t>12.0% (±2.4%)</t>
@@ -460,7 +460,7 @@
     <t>-20.6% (±6.1%)</t>
   </si>
   <si>
-    <t>3.1% (±4.9%)</t>
+    <t>3.5% (±5.0%)</t>
   </si>
   <si>
     <t>13.3% (±4.0%)</t>
@@ -472,7 +472,7 @@
     <t>5.5(±2.5)</t>
   </si>
   <si>
-    <t>-0.7(±1.8)</t>
+    <t>-1.3(±1.9)</t>
   </si>
   <si>
     <t>-0.9(±2.4)</t>
@@ -508,10 +508,10 @@
     <t>13.0(±10.1)</t>
   </si>
   <si>
-    <t>-4.2(±1.7)</t>
-  </si>
-  <si>
-    <t>-9.7(±9.2)</t>
+    <t>-4.1(±1.7)</t>
+  </si>
+  <si>
+    <t>-8.9(±9.2)</t>
   </si>
   <si>
     <t>-32.4(±24.3)</t>
@@ -529,10 +529,10 @@
     <t>5.0(±4.5)</t>
   </si>
   <si>
-    <t>1.9(±1.0)</t>
-  </si>
-  <si>
-    <t>-1.6(±1.4)</t>
+    <t>2.0(±0.9)</t>
+  </si>
+  <si>
+    <t>-1.3(±1.3)</t>
   </si>
   <si>
     <t>5.2(±1.0)</t>
@@ -553,694 +553,697 @@
     <t>-7.1(±2.9)</t>
   </si>
   <si>
+    <t>1.0(±1.3)</t>
+  </si>
+  <si>
+    <t>3.6(±1.0)</t>
+  </si>
+  <si>
+    <t>1.3(±1.8)</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>360.2 (±12.3)</t>
+  </si>
+  <si>
+    <t>573.0 (±20.3)</t>
+  </si>
+  <si>
+    <t>732.0 (±33.0)</t>
+  </si>
+  <si>
+    <t>255.8 (±12.3)</t>
+  </si>
+  <si>
+    <t>37.6 (±3.4)</t>
+  </si>
+  <si>
+    <t>703.6 (±39.4)</t>
+  </si>
+  <si>
+    <t>201.6 (±8.5)</t>
+  </si>
+  <si>
+    <t>152.0 (±25.2)</t>
+  </si>
+  <si>
+    <t>331.0 (±9.0)</t>
+  </si>
+  <si>
+    <t>3450.2 (±65.0)</t>
+  </si>
+  <si>
+    <t>582.4 (±40.1)</t>
+  </si>
+  <si>
+    <t>691.6 (±51.4)</t>
+  </si>
+  <si>
+    <t>24.8 (±4.4)</t>
+  </si>
+  <si>
+    <t>1944.8 (±119.7)</t>
+  </si>
+  <si>
+    <t>351.4 (±31.2)</t>
+  </si>
+  <si>
+    <t>480.2 (±49.8)</t>
+  </si>
+  <si>
+    <t>24.6 (±1.8)</t>
+  </si>
+  <si>
+    <t>23.6 (±1.9)</t>
+  </si>
+  <si>
+    <t>49.4 (±6.0)</t>
+  </si>
+  <si>
+    <t>538.8 (±18.2)</t>
+  </si>
+  <si>
+    <t>231.0 (±16.8)</t>
+  </si>
+  <si>
+    <t>4554.6 (±58.9)</t>
+  </si>
+  <si>
+    <t>474.2 (±36.6)</t>
+  </si>
+  <si>
+    <t>1952.2 (±93.7)</t>
+  </si>
+  <si>
+    <t>528.8 (±29.7)</t>
+  </si>
+  <si>
+    <t>507.6 (±29.1)</t>
+  </si>
+  <si>
+    <t>119.6 (±12.3)</t>
+  </si>
+  <si>
+    <t>1725.4 (±91.0)</t>
+  </si>
+  <si>
+    <t>374.4 (±19.8)</t>
+  </si>
+  <si>
+    <t>266.4 (±15.3)</t>
+  </si>
+  <si>
+    <t>28.8 (±12.3)</t>
+  </si>
+  <si>
+    <t>-7.0 (±20.3)</t>
+  </si>
+  <si>
+    <t>62.0 (±33.0)</t>
+  </si>
+  <si>
+    <t>-11.8 (±12.3)</t>
+  </si>
+  <si>
+    <t>-2.6 (±3.4)</t>
+  </si>
+  <si>
+    <t>4.4 (±39.4)</t>
+  </si>
+  <si>
+    <t>1.4 (±8.5)</t>
+  </si>
+  <si>
+    <t>3.0 (±25.2)</t>
+  </si>
+  <si>
+    <t>-4.0 (±9.0)</t>
+  </si>
+  <si>
+    <t>-29.2 (±65.0)</t>
+  </si>
+  <si>
+    <t>-71.4 (±40.1)</t>
+  </si>
+  <si>
+    <t>-19.6 (±51.4)</t>
+  </si>
+  <si>
+    <t>1.2 (±4.4)</t>
+  </si>
+  <si>
+    <t>-173.8 (±119.7)</t>
+  </si>
+  <si>
+    <t>-64.4 (±31.2)</t>
+  </si>
+  <si>
+    <t>0.2 (±0.6)</t>
+  </si>
+  <si>
+    <t>-44.2 (±49.8)</t>
+  </si>
+  <si>
+    <t>1.4 (±1.8)</t>
+  </si>
+  <si>
+    <t>1.4 (±1.9)</t>
+  </si>
+  <si>
+    <t>2.6 (±6.0)</t>
+  </si>
+  <si>
+    <t>76.2 (±18.2)</t>
+  </si>
+  <si>
+    <t>-2.0 (±16.8)</t>
+  </si>
+  <si>
+    <t>417.4 (±58.9)</t>
+  </si>
+  <si>
+    <t>-12.2 (±36.6)</t>
+  </si>
+  <si>
+    <t>29.8 (±93.7)</t>
+  </si>
+  <si>
+    <t>10.2 (±29.7)</t>
+  </si>
+  <si>
+    <t>0.4 (±29.1)</t>
+  </si>
+  <si>
+    <t>-12.6 (±12.3)</t>
+  </si>
+  <si>
+    <t>-27.4 (±91.0)</t>
+  </si>
+  <si>
+    <t>-46.4 (±19.8)</t>
+  </si>
+  <si>
+    <t>20.6 (±15.3)</t>
+  </si>
+  <si>
+    <t>8.0% (±3.6%)</t>
+  </si>
+  <si>
+    <t>-1.2% (±3.4%)</t>
+  </si>
+  <si>
+    <t>8.5% (±4.7%)</t>
+  </si>
+  <si>
+    <t>-4.6% (±4.4%)</t>
+  </si>
+  <si>
+    <t>-6.9% (±7.7%)</t>
+  </si>
+  <si>
+    <t>0.6% (±5.3%)</t>
+  </si>
+  <si>
+    <t>0.7% (±4.1%)</t>
+  </si>
+  <si>
+    <t>2.0% (±14.5%)</t>
+  </si>
+  <si>
+    <t>-1.2% (±2.6%)</t>
+  </si>
+  <si>
+    <t>-0.8% (±1.9%)</t>
+  </si>
+  <si>
+    <t>-12.3% (±5.6%)</t>
+  </si>
+  <si>
+    <t>-2.8% (±6.8%)</t>
+  </si>
+  <si>
+    <t>4.8% (±15.8%)</t>
+  </si>
+  <si>
+    <t>-8.9% (±5.3%)</t>
+  </si>
+  <si>
+    <t>-18.3% (±6.7%)</t>
+  </si>
+  <si>
+    <t>25.0% (±53.6%)</t>
+  </si>
+  <si>
+    <t>-9.2% (±8.5%)</t>
+  </si>
+  <si>
+    <t>5.7% (±7.2%)</t>
+  </si>
+  <si>
+    <t>5.9% (±7.9%)</t>
+  </si>
+  <si>
+    <t>5.3% (±11.4%)</t>
+  </si>
+  <si>
+    <t>14.1% (±3.7%)</t>
+  </si>
+  <si>
+    <t>-0.9% (±6.7%)</t>
+  </si>
+  <si>
+    <t>9.2% (±1.4%)</t>
+  </si>
+  <si>
+    <t>-2.6% (±7.0%)</t>
+  </si>
+  <si>
+    <t>1.5% (±4.6%)</t>
+  </si>
+  <si>
+    <t>1.9% (±5.4%)</t>
+  </si>
+  <si>
+    <t>0.1% (±5.4%)</t>
+  </si>
+  <si>
+    <t>-10.5% (±8.4%)</t>
+  </si>
+  <si>
+    <t>-1.6% (±4.9%)</t>
+  </si>
+  <si>
+    <t>-12.4% (±4.4%)</t>
+  </si>
+  <si>
+    <t>7.7% (±5.8%)</t>
+  </si>
+  <si>
+    <t>4.7(±2.0)</t>
+  </si>
+  <si>
+    <t>-0.9(±2.7)</t>
+  </si>
+  <si>
+    <t>12.6(±6.6)</t>
+  </si>
+  <si>
+    <t>-4.3(±4.5)</t>
+  </si>
+  <si>
+    <t>-3.7(±4.8)</t>
+  </si>
+  <si>
+    <t>0.6(±5.1)</t>
+  </si>
+  <si>
+    <t>0.4(±2.4)</t>
+  </si>
+  <si>
+    <t>2.9(±24.6)</t>
+  </si>
+  <si>
+    <t>-1.1(±2.5)</t>
+  </si>
+  <si>
+    <t>-0.7(±1.6)</t>
+  </si>
+  <si>
+    <t>-10.7(±6.0)</t>
+  </si>
+  <si>
+    <t>-3.0(±7.9)</t>
+  </si>
+  <si>
+    <t>4.2(±15.2)</t>
+  </si>
+  <si>
+    <t>-5.0(±3.4)</t>
+  </si>
+  <si>
+    <t>-46.8(±22.7)</t>
+  </si>
+  <si>
+    <t>8.0(±24.0)</t>
+  </si>
+  <si>
+    <t>-23.4(±26.4)</t>
+  </si>
+  <si>
+    <t>2.8(±3.6)</t>
+  </si>
+  <si>
+    <t>2.9(±3.9)</t>
+  </si>
+  <si>
+    <t>5.7(±13.2)</t>
+  </si>
+  <si>
+    <t>7.0(±1.7)</t>
+  </si>
+  <si>
+    <t>-0.5(±4.5)</t>
+  </si>
+  <si>
+    <t>13.7(±1.9)</t>
+  </si>
+  <si>
+    <t>-2.0(±6.1)</t>
+  </si>
+  <si>
+    <t>2.1(±6.8)</t>
+  </si>
+  <si>
+    <t>2.1(±6.2)</t>
+  </si>
+  <si>
+    <t>0.1(±6.7)</t>
+  </si>
+  <si>
+    <t>-8.2(±8.0)</t>
+  </si>
+  <si>
+    <t>-0.9(±3.0)</t>
+  </si>
+  <si>
+    <t>-6.6(±2.8)</t>
+  </si>
+  <si>
+    <t>3.3(±2.5)</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>538.4 (±14.9)</t>
+  </si>
+  <si>
+    <t>864.4 (±30.7)</t>
+  </si>
+  <si>
+    <t>1045.0 (±38.4)</t>
+  </si>
+  <si>
+    <t>354.2 (±17.7)</t>
+  </si>
+  <si>
+    <t>57.2 (±6.7)</t>
+  </si>
+  <si>
+    <t>1014.0 (±38.3)</t>
+  </si>
+  <si>
+    <t>312.6 (±13.1)</t>
+  </si>
+  <si>
+    <t>203.0 (±28.8)</t>
+  </si>
+  <si>
+    <t>457.4 (±8.9)</t>
+  </si>
+  <si>
+    <t>5007.0 (±70.6)</t>
+  </si>
+  <si>
+    <t>815.2 (±56.4)</t>
+  </si>
+  <si>
+    <t>1021.2 (±65.1)</t>
+  </si>
+  <si>
+    <t>32.6 (±5.7)</t>
+  </si>
+  <si>
+    <t>2976.4 (±172.4)</t>
+  </si>
+  <si>
+    <t>451.0 (±40.9)</t>
+  </si>
+  <si>
+    <t>1.6 (±0.7)</t>
+  </si>
+  <si>
+    <t>627.2 (±63.7)</t>
+  </si>
+  <si>
+    <t>36.2 (±1.9)</t>
+  </si>
+  <si>
+    <t>36.2 (±3.6)</t>
+  </si>
+  <si>
+    <t>67.2 (±7.1)</t>
+  </si>
+  <si>
+    <t>884.0 (±10.4)</t>
+  </si>
+  <si>
+    <t>342.8 (±16.7)</t>
+  </si>
+  <si>
+    <t>5843.0 (±39.3)</t>
+  </si>
+  <si>
+    <t>726.2 (±38.9)</t>
+  </si>
+  <si>
+    <t>2751.8 (±134.1)</t>
+  </si>
+  <si>
+    <t>779.6 (±49.1)</t>
+  </si>
+  <si>
+    <t>695.4 (±26.9)</t>
+  </si>
+  <si>
+    <t>166.2 (±15.8)</t>
+  </si>
+  <si>
+    <t>2575.0 (±128.4)</t>
+  </si>
+  <si>
+    <t>553.6 (±20.1)</t>
+  </si>
+  <si>
+    <t>418.6 (±20.2)</t>
+  </si>
+  <si>
+    <t>61.6 (±14.9)</t>
+  </si>
+  <si>
+    <t>-16.4 (±30.7)</t>
+  </si>
+  <si>
+    <t>58.0 (±38.4)</t>
+  </si>
+  <si>
+    <t>-11.2 (±17.7)</t>
+  </si>
+  <si>
+    <t>-3.2 (±6.7)</t>
+  </si>
+  <si>
+    <t>21.0 (±38.3)</t>
+  </si>
+  <si>
+    <t>4.4 (±13.1)</t>
+  </si>
+  <si>
+    <t>0.0 (±28.8)</t>
+  </si>
+  <si>
+    <t>6.6 (±8.9)</t>
+  </si>
+  <si>
+    <t>-32.0 (±70.6)</t>
+  </si>
+  <si>
+    <t>-87.2 (±56.4)</t>
+  </si>
+  <si>
+    <t>-16.2 (±65.1)</t>
+  </si>
+  <si>
+    <t>4.4 (±5.7)</t>
+  </si>
+  <si>
+    <t>-314.4 (±172.4)</t>
+  </si>
+  <si>
+    <t>-76.0 (±40.9)</t>
+  </si>
+  <si>
+    <t>-0.6 (±0.7)</t>
+  </si>
+  <si>
+    <t>-63.2 (±63.7)</t>
+  </si>
+  <si>
+    <t>-0.2 (±1.9)</t>
+  </si>
+  <si>
+    <t>-1.2 (±3.6)</t>
+  </si>
+  <si>
+    <t>4.8 (±7.1)</t>
+  </si>
+  <si>
+    <t>97.0 (±10.4)</t>
+  </si>
+  <si>
+    <t>-6.8 (±16.7)</t>
+  </si>
+  <si>
+    <t>572.0 (±39.3)</t>
+  </si>
+  <si>
+    <t>-21.2 (±38.9)</t>
+  </si>
+  <si>
+    <t>49.2 (±134.1)</t>
+  </si>
+  <si>
+    <t>-15.6 (±49.1)</t>
+  </si>
+  <si>
+    <t>-4.4 (±26.9)</t>
+  </si>
+  <si>
+    <t>-22.2 (±15.8)</t>
+  </si>
+  <si>
+    <t>2.0 (±128.4)</t>
+  </si>
+  <si>
+    <t>-22.6 (±20.1)</t>
+  </si>
+  <si>
+    <t>28.4 (±20.2)</t>
+  </si>
+  <si>
+    <t>11.4% (±3.0%)</t>
+  </si>
+  <si>
+    <t>-1.9% (±3.4%)</t>
+  </si>
+  <si>
+    <t>5.6% (±3.8%)</t>
+  </si>
+  <si>
+    <t>-3.2% (±4.6%)</t>
+  </si>
+  <si>
+    <t>-5.6% (±9.9%)</t>
+  </si>
+  <si>
+    <t>2.1% (±3.7%)</t>
+  </si>
+  <si>
+    <t>1.4% (±4.1%)</t>
+  </si>
+  <si>
+    <t>0.0% (±12.4%)</t>
+  </si>
+  <si>
+    <t>1.4% (±1.9%)</t>
+  </si>
+  <si>
+    <t>-0.6% (±1.4%)</t>
+  </si>
+  <si>
+    <t>-10.7% (±5.8%)</t>
+  </si>
+  <si>
+    <t>-1.6% (±5.9%)</t>
+  </si>
+  <si>
+    <t>13.5% (±16.9%)</t>
+  </si>
+  <si>
+    <t>-10.6% (±4.9%)</t>
+  </si>
+  <si>
+    <t>-16.9% (±6.9%)</t>
+  </si>
+  <si>
+    <t>-37.5% (±19.0%)</t>
+  </si>
+  <si>
+    <t>-10.1% (±8.3%)</t>
+  </si>
+  <si>
+    <t>-0.6% (±4.9%)</t>
+  </si>
+  <si>
+    <t>-3.3% (±8.8%)</t>
+  </si>
+  <si>
+    <t>7.1% (±10.2%)</t>
+  </si>
+  <si>
+    <t>11.0% (±1.3%)</t>
+  </si>
+  <si>
+    <t>-2.0% (±4.5%)</t>
+  </si>
+  <si>
+    <t>9.8% (±0.7%)</t>
+  </si>
+  <si>
+    <t>-2.9% (±5.0%)</t>
+  </si>
+  <si>
+    <t>1.8% (±4.7%)</t>
+  </si>
+  <si>
+    <t>-2.0% (±5.8%)</t>
+  </si>
+  <si>
+    <t>-0.6% (±3.7%)</t>
+  </si>
+  <si>
+    <t>-13.4% (±7.5%)</t>
+  </si>
+  <si>
+    <t>0.1% (±4.8%)</t>
+  </si>
+  <si>
+    <t>-4.1% (±3.3%)</t>
+  </si>
+  <si>
+    <t>6.8% (±4.9%)</t>
+  </si>
+  <si>
+    <t>5.1(±1.2)</t>
+  </si>
+  <si>
+    <t>-1.1(±2.1)</t>
+  </si>
+  <si>
+    <t>6.1(±4.0)</t>
+  </si>
+  <si>
+    <t>-2.1(±3.3)</t>
+  </si>
+  <si>
+    <t>-2.2(±4.6)</t>
+  </si>
+  <si>
+    <t>1.4(±2.6)</t>
+  </si>
+  <si>
+    <t>0.6(±1.9)</t>
+  </si>
+  <si>
+    <t>0.0(±14.7)</t>
+  </si>
+  <si>
     <t>0.9(±1.3)</t>
   </si>
   <si>
-    <t>3.6(±1.0)</t>
-  </si>
-  <si>
-    <t>1.3(±1.8)</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>360.2 (±12.3)</t>
-  </si>
-  <si>
-    <t>573.0 (±20.3)</t>
-  </si>
-  <si>
-    <t>732.0 (±33.0)</t>
-  </si>
-  <si>
-    <t>255.8 (±12.3)</t>
-  </si>
-  <si>
-    <t>37.6 (±3.4)</t>
-  </si>
-  <si>
-    <t>703.6 (±39.4)</t>
-  </si>
-  <si>
-    <t>201.6 (±8.5)</t>
-  </si>
-  <si>
-    <t>152.0 (±25.2)</t>
-  </si>
-  <si>
-    <t>331.0 (±9.0)</t>
-  </si>
-  <si>
-    <t>3450.2 (±65.0)</t>
-  </si>
-  <si>
-    <t>582.4 (±40.1)</t>
-  </si>
-  <si>
-    <t>691.6 (±51.4)</t>
-  </si>
-  <si>
-    <t>24.8 (±4.4)</t>
-  </si>
-  <si>
-    <t>1944.8 (±119.7)</t>
-  </si>
-  <si>
-    <t>351.4 (±31.2)</t>
-  </si>
-  <si>
-    <t>480.2 (±49.8)</t>
-  </si>
-  <si>
-    <t>24.6 (±1.8)</t>
-  </si>
-  <si>
-    <t>23.6 (±1.9)</t>
-  </si>
-  <si>
-    <t>49.4 (±6.0)</t>
-  </si>
-  <si>
-    <t>540.6 (±18.7)</t>
-  </si>
-  <si>
-    <t>230.8 (±16.7)</t>
-  </si>
-  <si>
-    <t>4554.6 (±58.9)</t>
-  </si>
-  <si>
-    <t>474.2 (±36.6)</t>
-  </si>
-  <si>
-    <t>1952.2 (±93.7)</t>
-  </si>
-  <si>
-    <t>528.8 (±29.7)</t>
-  </si>
-  <si>
-    <t>507.6 (±29.1)</t>
-  </si>
-  <si>
-    <t>119.6 (±12.3)</t>
-  </si>
-  <si>
-    <t>1725.4 (±91.0)</t>
-  </si>
-  <si>
-    <t>374.4 (±19.8)</t>
-  </si>
-  <si>
-    <t>266.4 (±15.3)</t>
-  </si>
-  <si>
-    <t>28.8 (±12.3)</t>
-  </si>
-  <si>
-    <t>20.0 (±20.3)</t>
-  </si>
-  <si>
-    <t>62.0 (±33.0)</t>
-  </si>
-  <si>
-    <t>-11.8 (±12.3)</t>
-  </si>
-  <si>
-    <t>-2.6 (±3.4)</t>
-  </si>
-  <si>
-    <t>4.4 (±39.4)</t>
-  </si>
-  <si>
-    <t>1.4 (±8.5)</t>
-  </si>
-  <si>
-    <t>2.0 (±25.2)</t>
-  </si>
-  <si>
-    <t>-4.0 (±9.0)</t>
-  </si>
-  <si>
-    <t>-31.2 (±65.0)</t>
-  </si>
-  <si>
-    <t>-71.4 (±40.1)</t>
-  </si>
-  <si>
-    <t>-19.6 (±51.4)</t>
-  </si>
-  <si>
-    <t>1.2 (±4.4)</t>
-  </si>
-  <si>
-    <t>-175.8 (±119.7)</t>
-  </si>
-  <si>
-    <t>-83.4 (±31.2)</t>
-  </si>
-  <si>
-    <t>0.2 (±0.6)</t>
-  </si>
-  <si>
-    <t>-44.2 (±49.8)</t>
-  </si>
-  <si>
-    <t>1.4 (±1.8)</t>
-  </si>
-  <si>
-    <t>1.4 (±1.9)</t>
-  </si>
-  <si>
-    <t>2.6 (±6.0)</t>
-  </si>
-  <si>
-    <t>71.4 (±18.7)</t>
-  </si>
-  <si>
-    <t>-1.8 (±16.7)</t>
-  </si>
-  <si>
-    <t>417.4 (±58.9)</t>
-  </si>
-  <si>
-    <t>-12.2 (±36.6)</t>
-  </si>
-  <si>
-    <t>29.8 (±93.7)</t>
-  </si>
-  <si>
-    <t>10.2 (±29.7)</t>
-  </si>
-  <si>
-    <t>0.4 (±29.1)</t>
-  </si>
-  <si>
-    <t>-12.6 (±12.3)</t>
-  </si>
-  <si>
-    <t>-70.4 (±91.0)</t>
-  </si>
-  <si>
-    <t>-46.4 (±19.8)</t>
-  </si>
-  <si>
-    <t>20.6 (±15.3)</t>
-  </si>
-  <si>
-    <t>8.0% (±3.6%)</t>
-  </si>
-  <si>
-    <t>3.5% (±3.6%)</t>
-  </si>
-  <si>
-    <t>8.5% (±4.7%)</t>
-  </si>
-  <si>
-    <t>-4.6% (±4.4%)</t>
-  </si>
-  <si>
-    <t>-6.9% (±7.7%)</t>
-  </si>
-  <si>
-    <t>0.6% (±5.3%)</t>
-  </si>
-  <si>
-    <t>0.7% (±4.1%)</t>
-  </si>
-  <si>
-    <t>1.3% (±14.4%)</t>
-  </si>
-  <si>
-    <t>-1.2% (±2.6%)</t>
-  </si>
-  <si>
-    <t>-0.9% (±1.8%)</t>
-  </si>
-  <si>
-    <t>-12.3% (±5.6%)</t>
-  </si>
-  <si>
-    <t>-2.8% (±6.8%)</t>
-  </si>
-  <si>
-    <t>4.8% (±15.8%)</t>
-  </si>
-  <si>
-    <t>-9.0% (±5.3%)</t>
-  </si>
-  <si>
-    <t>-23.7% (±6.3%)</t>
-  </si>
-  <si>
-    <t>25.0% (±53.6%)</t>
-  </si>
-  <si>
-    <t>-9.2% (±8.5%)</t>
-  </si>
-  <si>
-    <t>5.7% (±7.2%)</t>
-  </si>
-  <si>
-    <t>5.9% (±7.9%)</t>
-  </si>
-  <si>
-    <t>5.3% (±11.4%)</t>
-  </si>
-  <si>
-    <t>13.2% (±3.8%)</t>
-  </si>
-  <si>
-    <t>-0.8% (±6.7%)</t>
-  </si>
-  <si>
-    <t>9.2% (±1.4%)</t>
-  </si>
-  <si>
-    <t>-2.6% (±7.0%)</t>
-  </si>
-  <si>
-    <t>1.5% (±4.6%)</t>
-  </si>
-  <si>
-    <t>1.9% (±5.4%)</t>
-  </si>
-  <si>
-    <t>0.1% (±5.4%)</t>
-  </si>
-  <si>
-    <t>-10.5% (±8.4%)</t>
-  </si>
-  <si>
-    <t>-4.1% (±4.8%)</t>
-  </si>
-  <si>
-    <t>-12.4% (±4.4%)</t>
-  </si>
-  <si>
-    <t>7.7% (±5.8%)</t>
-  </si>
-  <si>
-    <t>4.7(±2.0)</t>
-  </si>
-  <si>
-    <t>2.7(±2.7)</t>
-  </si>
-  <si>
-    <t>12.6(±6.6)</t>
-  </si>
-  <si>
-    <t>-4.3(±4.5)</t>
-  </si>
-  <si>
-    <t>-3.7(±4.8)</t>
-  </si>
-  <si>
-    <t>0.6(±5.1)</t>
-  </si>
-  <si>
-    <t>0.4(±2.4)</t>
-  </si>
-  <si>
-    <t>1.9(±24.6)</t>
-  </si>
-  <si>
-    <t>-1.1(±2.5)</t>
-  </si>
-  <si>
-    <t>-0.8(±1.6)</t>
-  </si>
-  <si>
-    <t>-10.7(±6.0)</t>
-  </si>
-  <si>
-    <t>-3.0(±7.9)</t>
-  </si>
-  <si>
-    <t>4.2(±15.2)</t>
-  </si>
-  <si>
-    <t>-5.1(±3.5)</t>
-  </si>
-  <si>
-    <t>-60.5(±22.6)</t>
-  </si>
-  <si>
-    <t>8.0(±24.0)</t>
-  </si>
-  <si>
-    <t>-23.4(±26.4)</t>
-  </si>
-  <si>
-    <t>2.8(±3.6)</t>
-  </si>
-  <si>
-    <t>2.9(±3.9)</t>
-  </si>
-  <si>
-    <t>5.7(±13.2)</t>
-  </si>
-  <si>
-    <t>6.6(±1.7)</t>
-  </si>
-  <si>
-    <t>-0.5(±4.5)</t>
-  </si>
-  <si>
-    <t>13.7(±1.9)</t>
-  </si>
-  <si>
-    <t>-2.0(±6.1)</t>
-  </si>
-  <si>
-    <t>2.1(±6.8)</t>
-  </si>
-  <si>
-    <t>2.1(±6.2)</t>
-  </si>
-  <si>
-    <t>0.1(±6.7)</t>
-  </si>
-  <si>
-    <t>-8.2(±8.0)</t>
-  </si>
-  <si>
-    <t>-2.3(±3.0)</t>
-  </si>
-  <si>
-    <t>-6.6(±2.8)</t>
-  </si>
-  <si>
-    <t>3.3(±2.5)</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>538.4 (±14.9)</t>
-  </si>
-  <si>
-    <t>864.4 (±30.7)</t>
-  </si>
-  <si>
-    <t>1045.0 (±38.4)</t>
-  </si>
-  <si>
-    <t>354.2 (±17.7)</t>
-  </si>
-  <si>
-    <t>57.2 (±6.7)</t>
-  </si>
-  <si>
-    <t>1014.0 (±38.3)</t>
-  </si>
-  <si>
-    <t>312.6 (±13.1)</t>
-  </si>
-  <si>
-    <t>203.0 (±28.8)</t>
-  </si>
-  <si>
-    <t>457.4 (±8.9)</t>
-  </si>
-  <si>
-    <t>5007.0 (±70.6)</t>
-  </si>
-  <si>
-    <t>815.2 (±56.4)</t>
-  </si>
-  <si>
-    <t>1021.2 (±65.1)</t>
-  </si>
-  <si>
-    <t>32.6 (±5.7)</t>
-  </si>
-  <si>
-    <t>2976.4 (±172.4)</t>
-  </si>
-  <si>
-    <t>451.0 (±40.9)</t>
-  </si>
-  <si>
-    <t>1.6 (±0.7)</t>
-  </si>
-  <si>
-    <t>627.2 (±63.7)</t>
-  </si>
-  <si>
-    <t>36.2 (±1.9)</t>
-  </si>
-  <si>
-    <t>36.2 (±3.6)</t>
-  </si>
-  <si>
-    <t>67.2 (±7.1)</t>
-  </si>
-  <si>
-    <t>885.4 (±10.1)</t>
-  </si>
-  <si>
-    <t>342.4 (±16.6)</t>
-  </si>
-  <si>
-    <t>5843.0 (±39.3)</t>
-  </si>
-  <si>
-    <t>726.2 (±38.9)</t>
-  </si>
-  <si>
-    <t>2751.8 (±134.1)</t>
-  </si>
-  <si>
-    <t>779.6 (±49.1)</t>
-  </si>
-  <si>
-    <t>695.4 (±26.9)</t>
-  </si>
-  <si>
-    <t>166.2 (±15.8)</t>
-  </si>
-  <si>
-    <t>2575.0 (±128.4)</t>
-  </si>
-  <si>
-    <t>553.6 (±20.1)</t>
-  </si>
-  <si>
-    <t>418.6 (±20.2)</t>
-  </si>
-  <si>
-    <t>61.6 (±14.9)</t>
-  </si>
-  <si>
-    <t>14.6 (±30.7)</t>
-  </si>
-  <si>
-    <t>58.0 (±38.4)</t>
-  </si>
-  <si>
-    <t>-11.2 (±17.7)</t>
-  </si>
-  <si>
-    <t>-3.2 (±6.7)</t>
-  </si>
-  <si>
-    <t>21.0 (±38.3)</t>
-  </si>
-  <si>
-    <t>4.4 (±13.1)</t>
-  </si>
-  <si>
-    <t>-1.0 (±28.8)</t>
-  </si>
-  <si>
-    <t>6.6 (±8.9)</t>
-  </si>
-  <si>
-    <t>-34.0 (±70.6)</t>
-  </si>
-  <si>
-    <t>-87.2 (±56.4)</t>
-  </si>
-  <si>
-    <t>-16.2 (±65.1)</t>
-  </si>
-  <si>
-    <t>4.4 (±5.7)</t>
-  </si>
-  <si>
-    <t>-317.4 (±172.4)</t>
-  </si>
-  <si>
-    <t>-96.0 (±40.9)</t>
-  </si>
-  <si>
-    <t>-0.6 (±0.7)</t>
-  </si>
-  <si>
-    <t>-63.2 (±63.7)</t>
-  </si>
-  <si>
-    <t>-0.2 (±1.9)</t>
-  </si>
-  <si>
-    <t>-1.2 (±3.6)</t>
-  </si>
-  <si>
-    <t>4.8 (±7.1)</t>
-  </si>
-  <si>
-    <t>91.6 (±10.1)</t>
-  </si>
-  <si>
-    <t>-7.4 (±16.6)</t>
-  </si>
-  <si>
-    <t>572.0 (±39.3)</t>
-  </si>
-  <si>
-    <t>-21.2 (±38.9)</t>
-  </si>
-  <si>
-    <t>49.2 (±134.1)</t>
-  </si>
-  <si>
-    <t>-15.6 (±49.1)</t>
-  </si>
-  <si>
-    <t>-4.4 (±26.9)</t>
-  </si>
-  <si>
-    <t>-22.2 (±15.8)</t>
-  </si>
-  <si>
-    <t>-37.0 (±128.4)</t>
-  </si>
-  <si>
-    <t>-22.6 (±20.1)</t>
-  </si>
-  <si>
-    <t>28.4 (±20.2)</t>
-  </si>
-  <si>
-    <t>11.4% (±3.0%)</t>
-  </si>
-  <si>
-    <t>1.7% (±3.5%)</t>
-  </si>
-  <si>
-    <t>5.6% (±3.8%)</t>
-  </si>
-  <si>
-    <t>-3.2% (±4.6%)</t>
-  </si>
-  <si>
-    <t>-5.6% (±9.9%)</t>
-  </si>
-  <si>
-    <t>2.1% (±3.7%)</t>
-  </si>
-  <si>
-    <t>1.4% (±4.1%)</t>
-  </si>
-  <si>
-    <t>-0.5% (±12.4%)</t>
-  </si>
-  <si>
-    <t>1.4% (±1.9%)</t>
-  </si>
-  <si>
-    <t>-0.7% (±1.4%)</t>
-  </si>
-  <si>
-    <t>-10.7% (±5.8%)</t>
-  </si>
-  <si>
-    <t>-1.6% (±5.9%)</t>
-  </si>
-  <si>
-    <t>13.5% (±16.9%)</t>
-  </si>
-  <si>
-    <t>-10.7% (±4.9%)</t>
-  </si>
-  <si>
-    <t>-21.3% (±6.5%)</t>
-  </si>
-  <si>
-    <t>-37.5% (±19.0%)</t>
-  </si>
-  <si>
-    <t>-10.1% (±8.3%)</t>
-  </si>
-  <si>
-    <t>-0.6% (±4.9%)</t>
-  </si>
-  <si>
-    <t>-3.3% (±8.8%)</t>
-  </si>
-  <si>
-    <t>7.1% (±10.2%)</t>
-  </si>
-  <si>
-    <t>10.3% (±1.2%)</t>
-  </si>
-  <si>
-    <t>-2.2% (±4.5%)</t>
-  </si>
-  <si>
-    <t>9.8% (±0.7%)</t>
-  </si>
-  <si>
-    <t>-2.9% (±5.0%)</t>
-  </si>
-  <si>
-    <t>1.8% (±4.7%)</t>
-  </si>
-  <si>
-    <t>-2.0% (±5.8%)</t>
-  </si>
-  <si>
-    <t>-0.6% (±3.7%)</t>
-  </si>
-  <si>
-    <t>-13.4% (±7.5%)</t>
-  </si>
-  <si>
-    <t>-1.4% (±4.7%)</t>
-  </si>
-  <si>
-    <t>-4.1% (±3.3%)</t>
-  </si>
-  <si>
-    <t>6.8% (±4.9%)</t>
-  </si>
-  <si>
-    <t>5.1(±1.2)</t>
-  </si>
-  <si>
-    <t>1.0(±2.0)</t>
-  </si>
-  <si>
-    <t>6.1(±4.0)</t>
-  </si>
-  <si>
-    <t>-2.1(±3.3)</t>
-  </si>
-  <si>
-    <t>-2.2(±4.6)</t>
-  </si>
-  <si>
-    <t>1.4(±2.6)</t>
-  </si>
-  <si>
-    <t>0.6(±1.9)</t>
-  </si>
-  <si>
-    <t>-0.5(±14.7)</t>
-  </si>
-  <si>
-    <t>-0.4(±0.8)</t>
+    <t>-0.4(±0.9)</t>
   </si>
   <si>
     <t>-6.5(±4.2)</t>
@@ -1255,7 +1258,7 @@
     <t>-4.6(±2.5)</t>
   </si>
   <si>
-    <t>-35.8(±15.3)</t>
+    <t>-28.3(±15.2)</t>
   </si>
   <si>
     <t>-12.1(±14.1)</t>
@@ -1273,10 +1276,10 @@
     <t>5.4(±7.9)</t>
   </si>
   <si>
-    <t>4.3(±0.4)</t>
-  </si>
-  <si>
-    <t>-1.0(±2.3)</t>
+    <t>4.5(±0.5)</t>
+  </si>
+  <si>
+    <t>-0.9(±2.3)</t>
   </si>
   <si>
     <t>9.5(±0.7)</t>
@@ -1297,7 +1300,7 @@
     <t>-7.7(±5.5)</t>
   </si>
   <si>
-    <t>-0.6(±2.1)</t>
+    <t>0.0(±2.1)</t>
   </si>
   <si>
     <t>-1.7(±1.5)</t>
@@ -1862,7 +1865,7 @@
         <v>265</v>
       </c>
       <c r="H3">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="I3">
         <v>291.4000000000001</v>
@@ -1883,13 +1886,13 @@
         <v>305.1000000000001</v>
       </c>
       <c r="O3">
-        <v>-5.4</v>
+        <v>-9.4</v>
       </c>
       <c r="P3">
         <v>13.7</v>
       </c>
       <c r="Q3">
-        <v>-1.9</v>
+        <v>-3.2</v>
       </c>
       <c r="R3">
         <v>4.4</v>
@@ -1907,10 +1910,10 @@
         <v>749098</v>
       </c>
       <c r="W3">
-        <v>-0.7</v>
+        <v>-1.3</v>
       </c>
       <c r="X3">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="Y3" t="s">
         <v>151</v>
@@ -2786,7 +2789,7 @@
         <v>888</v>
       </c>
       <c r="H15">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="I15">
         <v>1031.6</v>
@@ -2807,13 +2810,13 @@
         <v>1088.9</v>
       </c>
       <c r="O15">
-        <v>-141.6</v>
+        <v>-140.6</v>
       </c>
       <c r="P15">
         <v>57.3</v>
       </c>
       <c r="Q15">
-        <v>-13.7</v>
+        <v>-13.6</v>
       </c>
       <c r="R15">
         <v>4.6</v>
@@ -2831,7 +2834,7 @@
         <v>3402902</v>
       </c>
       <c r="W15">
-        <v>-4.2</v>
+        <v>-4.1</v>
       </c>
       <c r="X15">
         <v>1.7</v>
@@ -2863,7 +2866,7 @@
         <v>84</v>
       </c>
       <c r="H16">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I16">
         <v>99.60000000000002</v>
@@ -2884,16 +2887,16 @@
         <v>111.6</v>
       </c>
       <c r="O16">
-        <v>-12.6</v>
+        <v>-11.6</v>
       </c>
       <c r="P16">
         <v>12</v>
       </c>
       <c r="Q16">
-        <v>-12.7</v>
+        <v>-11.6</v>
       </c>
       <c r="R16">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="S16" t="s">
         <v>71</v>
@@ -2908,7 +2911,7 @@
         <v>130421</v>
       </c>
       <c r="W16">
-        <v>-9.699999999999999</v>
+        <v>-8.9</v>
       </c>
       <c r="X16">
         <v>9.199999999999999</v>
@@ -3313,49 +3316,49 @@
         <v>332</v>
       </c>
       <c r="D22">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E22">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="F22">
         <v>326</v>
       </c>
       <c r="G22">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H22">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I22">
-        <v>344.8</v>
+        <v>345.2</v>
       </c>
       <c r="J22">
-        <v>12.1</v>
+        <v>11.2</v>
       </c>
       <c r="K22">
         <v>1.96</v>
       </c>
       <c r="L22">
-        <v>10.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="M22">
-        <v>334.1999999999999</v>
+        <v>335.4</v>
       </c>
       <c r="N22">
-        <v>355.4</v>
+        <v>355</v>
       </c>
       <c r="O22">
-        <v>20.2</v>
+        <v>20.8</v>
       </c>
       <c r="P22">
-        <v>10.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Q22">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="R22">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="S22" t="s">
         <v>77</v>
@@ -3370,10 +3373,10 @@
         <v>1066068</v>
       </c>
       <c r="W22">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X22">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="Y22" t="s">
         <v>170</v>
@@ -3399,13 +3402,13 @@
         <v>103</v>
       </c>
       <c r="G23">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H23">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I23">
-        <v>111.6</v>
+        <v>111.8</v>
       </c>
       <c r="J23">
         <v>5.6</v>
@@ -3417,19 +3420,19 @@
         <v>4.9</v>
       </c>
       <c r="M23">
-        <v>106.7</v>
+        <v>106.9</v>
       </c>
       <c r="N23">
-        <v>116.5</v>
+        <v>116.7</v>
       </c>
       <c r="O23">
-        <v>-5.6</v>
+        <v>-4.8</v>
       </c>
       <c r="P23">
         <v>4.9</v>
       </c>
       <c r="Q23">
-        <v>-5</v>
+        <v>-4.3</v>
       </c>
       <c r="R23">
         <v>4</v>
@@ -3447,10 +3450,10 @@
         <v>356127</v>
       </c>
       <c r="W23">
-        <v>-1.6</v>
+        <v>-1.3</v>
       </c>
       <c r="X23">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="Y23" t="s">
         <v>171</v>
@@ -3941,7 +3944,7 @@
         <v>764</v>
       </c>
       <c r="H30">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="I30">
         <v>849.6</v>
@@ -3962,16 +3965,16 @@
         <v>892</v>
       </c>
       <c r="O30">
-        <v>26.4</v>
+        <v>29.4</v>
       </c>
       <c r="P30">
         <v>42.4</v>
       </c>
       <c r="Q30">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="R30">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="S30" t="s">
         <v>85</v>
@@ -3986,7 +3989,7 @@
         <v>3060796</v>
       </c>
       <c r="W30">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="X30">
         <v>1.3</v>
@@ -4339,7 +4342,7 @@
         <v>534</v>
       </c>
       <c r="H3">
-        <v>593</v>
+        <v>566</v>
       </c>
       <c r="I3">
         <v>572.9999999999999</v>
@@ -4360,16 +4363,16 @@
         <v>593.2999999999998</v>
       </c>
       <c r="O3">
-        <v>20</v>
+        <v>-7</v>
       </c>
       <c r="P3">
         <v>20.3</v>
       </c>
       <c r="Q3">
-        <v>3.5</v>
+        <v>-1.2</v>
       </c>
       <c r="R3">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="S3" t="s">
         <v>183</v>
@@ -4384,7 +4387,7 @@
         <v>750318</v>
       </c>
       <c r="W3">
-        <v>2.7</v>
+        <v>-0.9</v>
       </c>
       <c r="X3">
         <v>2.7</v>
@@ -4801,7 +4804,7 @@
         <v>112</v>
       </c>
       <c r="H9">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I9">
         <v>152</v>
@@ -4822,16 +4825,16 @@
         <v>177.2</v>
       </c>
       <c r="O9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P9">
         <v>25.2</v>
       </c>
       <c r="Q9">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="R9">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="S9" t="s">
         <v>189</v>
@@ -4846,7 +4849,7 @@
         <v>102693</v>
       </c>
       <c r="W9">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="X9">
         <v>24.6</v>
@@ -4955,7 +4958,7 @@
         <v>3395</v>
       </c>
       <c r="H11">
-        <v>3419</v>
+        <v>3421</v>
       </c>
       <c r="I11">
         <v>3450.200000000002</v>
@@ -4976,16 +4979,16 @@
         <v>3515.200000000002</v>
       </c>
       <c r="O11">
-        <v>-31.2</v>
+        <v>-29.2</v>
       </c>
       <c r="P11">
         <v>65</v>
       </c>
       <c r="Q11">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
       <c r="R11">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S11" t="s">
         <v>191</v>
@@ -5000,7 +5003,7 @@
         <v>4048789</v>
       </c>
       <c r="W11">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="X11">
         <v>1.6</v>
@@ -5263,7 +5266,7 @@
         <v>1730</v>
       </c>
       <c r="H15">
-        <v>1769</v>
+        <v>1771</v>
       </c>
       <c r="I15">
         <v>1944.8</v>
@@ -5284,13 +5287,13 @@
         <v>2064.5</v>
       </c>
       <c r="O15">
-        <v>-175.8</v>
+        <v>-173.8</v>
       </c>
       <c r="P15">
         <v>119.7</v>
       </c>
       <c r="Q15">
-        <v>-9</v>
+        <v>-8.9</v>
       </c>
       <c r="R15">
         <v>5.3</v>
@@ -5308,10 +5311,10 @@
         <v>3451730</v>
       </c>
       <c r="W15">
-        <v>-5.1</v>
+        <v>-5</v>
       </c>
       <c r="X15">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y15" t="s">
         <v>287</v>
@@ -5340,7 +5343,7 @@
         <v>275</v>
       </c>
       <c r="H16">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="I16">
         <v>351.3999999999999</v>
@@ -5361,16 +5364,16 @@
         <v>382.5999999999999</v>
       </c>
       <c r="O16">
-        <v>-83.40000000000001</v>
+        <v>-64.40000000000001</v>
       </c>
       <c r="P16">
         <v>31.2</v>
       </c>
       <c r="Q16">
-        <v>-23.7</v>
+        <v>-18.3</v>
       </c>
       <c r="R16">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="S16" t="s">
         <v>196</v>
@@ -5385,10 +5388,10 @@
         <v>137752</v>
       </c>
       <c r="W16">
-        <v>-60.5</v>
+        <v>-46.8</v>
       </c>
       <c r="X16">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="Y16" t="s">
         <v>288</v>
@@ -5790,49 +5793,49 @@
         <v>530</v>
       </c>
       <c r="D22">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E22">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F22">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G22">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="H22">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="I22">
-        <v>540.6000000000001</v>
+        <v>538.8</v>
       </c>
       <c r="J22">
-        <v>21.3</v>
+        <v>20.8</v>
       </c>
       <c r="K22">
         <v>1.96</v>
       </c>
       <c r="L22">
-        <v>18.7</v>
+        <v>18.2</v>
       </c>
       <c r="M22">
-        <v>521.9000000000001</v>
+        <v>520.5999999999999</v>
       </c>
       <c r="N22">
-        <v>559.3000000000002</v>
+        <v>557</v>
       </c>
       <c r="O22">
-        <v>71.40000000000001</v>
+        <v>76.2</v>
       </c>
       <c r="P22">
-        <v>18.7</v>
+        <v>18.2</v>
       </c>
       <c r="Q22">
-        <v>13.2</v>
+        <v>14.1</v>
       </c>
       <c r="R22">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="S22" t="s">
         <v>201</v>
@@ -5847,7 +5850,7 @@
         <v>1081863</v>
       </c>
       <c r="W22">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="X22">
         <v>1.7</v>
@@ -5873,7 +5876,7 @@
         <v>198</v>
       </c>
       <c r="F23">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G23">
         <v>222</v>
@@ -5882,31 +5885,31 @@
         <v>229</v>
       </c>
       <c r="I23">
-        <v>230.8</v>
+        <v>231</v>
       </c>
       <c r="J23">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="K23">
         <v>1.96</v>
       </c>
       <c r="L23">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="M23">
-        <v>214.1000000000001</v>
+        <v>214.2</v>
       </c>
       <c r="N23">
-        <v>247.5</v>
+        <v>247.8</v>
       </c>
       <c r="O23">
-        <v>-1.8</v>
+        <v>-2</v>
       </c>
       <c r="P23">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="Q23">
-        <v>-0.8</v>
+        <v>-0.9</v>
       </c>
       <c r="R23">
         <v>6.7</v>
@@ -6418,7 +6421,7 @@
         <v>1552</v>
       </c>
       <c r="H30">
-        <v>1655</v>
+        <v>1698</v>
       </c>
       <c r="I30">
         <v>1725.4</v>
@@ -6439,16 +6442,16 @@
         <v>1816.4</v>
       </c>
       <c r="O30">
-        <v>-70.40000000000001</v>
+        <v>-27.4</v>
       </c>
       <c r="P30">
         <v>91</v>
       </c>
       <c r="Q30">
-        <v>-4.1</v>
+        <v>-1.6</v>
       </c>
       <c r="R30">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="S30" t="s">
         <v>209</v>
@@ -6463,7 +6466,7 @@
         <v>3042525</v>
       </c>
       <c r="W30">
-        <v>-2.3</v>
+        <v>-0.9</v>
       </c>
       <c r="X30">
         <v>3</v>
@@ -6816,7 +6819,7 @@
         <v>799</v>
       </c>
       <c r="H3">
-        <v>879</v>
+        <v>848</v>
       </c>
       <c r="I3">
         <v>864.4000000000002</v>
@@ -6837,16 +6840,16 @@
         <v>895.1000000000003</v>
       </c>
       <c r="O3">
-        <v>14.6</v>
+        <v>-16.4</v>
       </c>
       <c r="P3">
         <v>30.7</v>
       </c>
       <c r="Q3">
-        <v>1.7</v>
+        <v>-1.9</v>
       </c>
       <c r="R3">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="S3" t="s">
         <v>307</v>
@@ -6861,10 +6864,10 @@
         <v>1499416</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>-1.1</v>
       </c>
       <c r="X3">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y3" t="s">
         <v>400</v>
@@ -7278,7 +7281,7 @@
         <v>163</v>
       </c>
       <c r="H9">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I9">
         <v>202.9999999999999</v>
@@ -7299,13 +7302,13 @@
         <v>231.8</v>
       </c>
       <c r="O9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>28.8</v>
       </c>
       <c r="Q9">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R9">
         <v>12.4</v>
@@ -7323,7 +7326,7 @@
         <v>196352</v>
       </c>
       <c r="W9">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="X9">
         <v>14.7</v>
@@ -7406,7 +7409,7 @@
         <v>1.3</v>
       </c>
       <c r="Y10" t="s">
-        <v>178</v>
+        <v>407</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -7432,7 +7435,7 @@
         <v>4927</v>
       </c>
       <c r="H11">
-        <v>4973</v>
+        <v>4975</v>
       </c>
       <c r="I11">
         <v>5006.999999999998</v>
@@ -7453,13 +7456,13 @@
         <v>5077.599999999999</v>
       </c>
       <c r="O11">
-        <v>-34</v>
+        <v>-32</v>
       </c>
       <c r="P11">
         <v>70.59999999999999</v>
       </c>
       <c r="Q11">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="R11">
         <v>1.4</v>
@@ -7480,10 +7483,10 @@
         <v>-0.4</v>
       </c>
       <c r="X11">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="Y11" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -7560,7 +7563,7 @@
         <v>4.2</v>
       </c>
       <c r="Y12" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -7637,7 +7640,7 @@
         <v>5.1</v>
       </c>
       <c r="Y13" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -7714,7 +7717,7 @@
         <v>10.7</v>
       </c>
       <c r="Y14" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -7740,7 +7743,7 @@
         <v>2618</v>
       </c>
       <c r="H15">
-        <v>2659</v>
+        <v>2662</v>
       </c>
       <c r="I15">
         <v>2976.4</v>
@@ -7761,13 +7764,13 @@
         <v>3148.8</v>
       </c>
       <c r="O15">
-        <v>-317.4</v>
+        <v>-314.4</v>
       </c>
       <c r="P15">
         <v>172.4</v>
       </c>
       <c r="Q15">
-        <v>-10.7</v>
+        <v>-10.6</v>
       </c>
       <c r="R15">
         <v>4.9</v>
@@ -7791,7 +7794,7 @@
         <v>2.5</v>
       </c>
       <c r="Y15" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -7817,7 +7820,7 @@
         <v>359</v>
       </c>
       <c r="H16">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="I16">
         <v>450.9999999999998</v>
@@ -7838,16 +7841,16 @@
         <v>491.8999999999997</v>
       </c>
       <c r="O16">
-        <v>-96</v>
+        <v>-76</v>
       </c>
       <c r="P16">
         <v>40.9</v>
       </c>
       <c r="Q16">
-        <v>-21.3</v>
+        <v>-16.9</v>
       </c>
       <c r="R16">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="S16" t="s">
         <v>320</v>
@@ -7862,13 +7865,13 @@
         <v>268173</v>
       </c>
       <c r="W16">
-        <v>-35.8</v>
+        <v>-28.3</v>
       </c>
       <c r="X16">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="Y16" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -7945,7 +7948,7 @@
         <v>14.1</v>
       </c>
       <c r="Y17" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -8022,7 +8025,7 @@
         <v>17.7</v>
       </c>
       <c r="Y18" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -8099,7 +8102,7 @@
         <v>1.9</v>
       </c>
       <c r="Y19" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -8176,7 +8179,7 @@
         <v>4</v>
       </c>
       <c r="Y20" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -8253,7 +8256,7 @@
         <v>7.9</v>
       </c>
       <c r="Y21" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -8267,49 +8270,49 @@
         <v>862</v>
       </c>
       <c r="D22">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="E22">
         <v>869</v>
       </c>
       <c r="F22">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="G22">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="H22">
-        <v>977</v>
+        <v>981</v>
       </c>
       <c r="I22">
-        <v>885.4000000000002</v>
+        <v>884.0000000000002</v>
       </c>
       <c r="J22">
-        <v>11.5</v>
+        <v>11.9</v>
       </c>
       <c r="K22">
         <v>1.96</v>
       </c>
       <c r="L22">
-        <v>10.1</v>
+        <v>10.4</v>
       </c>
       <c r="M22">
-        <v>875.3000000000002</v>
+        <v>873.6000000000003</v>
       </c>
       <c r="N22">
-        <v>895.5000000000002</v>
+        <v>894.4000000000002</v>
       </c>
       <c r="O22">
-        <v>91.59999999999999</v>
+        <v>97</v>
       </c>
       <c r="P22">
-        <v>10.1</v>
+        <v>10.4</v>
       </c>
       <c r="Q22">
-        <v>10.3</v>
+        <v>11</v>
       </c>
       <c r="R22">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="S22" t="s">
         <v>326</v>
@@ -8324,13 +8327,13 @@
         <v>2147931</v>
       </c>
       <c r="W22">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="X22">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="Y22" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -8350,40 +8353,40 @@
         <v>303</v>
       </c>
       <c r="F23">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G23">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H23">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I23">
-        <v>342.4000000000001</v>
+        <v>342.8000000000001</v>
       </c>
       <c r="J23">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="K23">
         <v>1.96</v>
       </c>
       <c r="L23">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="M23">
-        <v>325.8000000000001</v>
+        <v>326.1000000000001</v>
       </c>
       <c r="N23">
-        <v>359.0000000000001</v>
+        <v>359.5000000000001</v>
       </c>
       <c r="O23">
-        <v>-7.4</v>
+        <v>-6.8</v>
       </c>
       <c r="P23">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="Q23">
-        <v>-2.2</v>
+        <v>-2</v>
       </c>
       <c r="R23">
         <v>4.5</v>
@@ -8401,13 +8404,13 @@
         <v>730547</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>-0.9</v>
       </c>
       <c r="X23">
         <v>2.3</v>
       </c>
       <c r="Y23" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -8484,7 +8487,7 @@
         <v>0.7</v>
       </c>
       <c r="Y24" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -8561,7 +8564,7 @@
         <v>3.1</v>
       </c>
       <c r="Y25" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -8638,7 +8641,7 @@
         <v>5</v>
       </c>
       <c r="Y26" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -8715,7 +8718,7 @@
         <v>5.1</v>
       </c>
       <c r="Y27" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -8792,7 +8795,7 @@
         <v>3.2</v>
       </c>
       <c r="Y28" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -8869,7 +8872,7 @@
         <v>5.5</v>
       </c>
       <c r="Y29" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -8895,7 +8898,7 @@
         <v>2316</v>
       </c>
       <c r="H30">
-        <v>2538</v>
+        <v>2577</v>
       </c>
       <c r="I30">
         <v>2575</v>
@@ -8916,16 +8919,16 @@
         <v>2703.400000000001</v>
       </c>
       <c r="O30">
-        <v>-37</v>
+        <v>2</v>
       </c>
       <c r="P30">
         <v>128.4</v>
       </c>
       <c r="Q30">
-        <v>-1.4</v>
+        <v>0.1</v>
       </c>
       <c r="R30">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="S30" t="s">
         <v>334</v>
@@ -8940,13 +8943,13 @@
         <v>6103321</v>
       </c>
       <c r="W30">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
       <c r="X30">
         <v>2.1</v>
       </c>
       <c r="Y30" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -9023,7 +9026,7 @@
         <v>1.5</v>
       </c>
       <c r="Y31" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -9100,7 +9103,7 @@
         <v>1.7</v>
       </c>
       <c r="Y32" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -9118,7 +9121,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -9127,18 +9130,18 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -9158,7 +9161,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -9178,7 +9181,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B4" t="s">
         <v>181</v>
@@ -9198,7 +9201,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B5" t="s">
         <v>181</v>
@@ -9218,7 +9221,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B6" t="s">
         <v>305</v>
@@ -9238,7 +9241,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B7" t="s">
         <v>305</v>
@@ -9258,7 +9261,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -9278,7 +9281,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -9298,7 +9301,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B10" t="s">
         <v>181</v>
@@ -9318,7 +9321,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B11" t="s">
         <v>181</v>
@@ -9338,7 +9341,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B12" t="s">
         <v>305</v>
@@ -9358,7 +9361,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B13" t="s">
         <v>305</v>
@@ -9378,7 +9381,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -9398,7 +9401,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -9418,7 +9421,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B16" t="s">
         <v>181</v>
@@ -9438,7 +9441,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B17" t="s">
         <v>181</v>
@@ -9458,7 +9461,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B18" t="s">
         <v>305</v>
@@ -9478,7 +9481,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B19" t="s">
         <v>305</v>
@@ -9498,7 +9501,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -9518,7 +9521,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -9538,7 +9541,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B22" t="s">
         <v>181</v>
@@ -9558,7 +9561,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B23" t="s">
         <v>181</v>
@@ -9578,7 +9581,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B24" t="s">
         <v>305</v>
@@ -9598,7 +9601,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B25" t="s">
         <v>305</v>
@@ -9618,7 +9621,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
@@ -9638,7 +9641,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
@@ -9658,7 +9661,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B28" t="s">
         <v>181</v>
@@ -9678,7 +9681,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B29" t="s">
         <v>181</v>
@@ -9698,7 +9701,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B30" t="s">
         <v>305</v>
@@ -9718,7 +9721,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B31" t="s">
         <v>305</v>
@@ -9738,7 +9741,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B32" t="s">
         <v>25</v>
@@ -9758,7 +9761,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B33" t="s">
         <v>25</v>
@@ -9778,7 +9781,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B34" t="s">
         <v>181</v>
@@ -9798,7 +9801,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B35" t="s">
         <v>181</v>
@@ -9818,7 +9821,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B36" t="s">
         <v>305</v>
@@ -9838,7 +9841,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B37" t="s">
         <v>305</v>
@@ -9858,7 +9861,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B38" t="s">
         <v>25</v>
@@ -9878,7 +9881,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B39" t="s">
         <v>25</v>
@@ -9898,7 +9901,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B40" t="s">
         <v>181</v>
@@ -9918,7 +9921,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B41" t="s">
         <v>181</v>
@@ -9938,7 +9941,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B42" t="s">
         <v>305</v>
@@ -9958,7 +9961,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B43" t="s">
         <v>305</v>
@@ -9978,7 +9981,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B44" t="s">
         <v>25</v>
@@ -9998,7 +10001,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B45" t="s">
         <v>25</v>
@@ -10018,7 +10021,7 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B46" t="s">
         <v>181</v>
@@ -10038,7 +10041,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B47" t="s">
         <v>181</v>
@@ -10058,7 +10061,7 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B48" t="s">
         <v>305</v>
@@ -10078,7 +10081,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B49" t="s">
         <v>305</v>
@@ -10098,7 +10101,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B50" t="s">
         <v>25</v>
@@ -10118,7 +10121,7 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B51" t="s">
         <v>25</v>
@@ -10138,7 +10141,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B52" t="s">
         <v>181</v>
@@ -10158,7 +10161,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B53" t="s">
         <v>181</v>
@@ -10178,7 +10181,7 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B54" t="s">
         <v>305</v>
@@ -10198,7 +10201,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B55" t="s">
         <v>305</v>
@@ -10218,7 +10221,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B56" t="s">
         <v>25</v>
@@ -10238,7 +10241,7 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B57" t="s">
         <v>25</v>
@@ -10258,7 +10261,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B58" t="s">
         <v>181</v>
@@ -10278,7 +10281,7 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B59" t="s">
         <v>181</v>
@@ -10298,7 +10301,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B60" t="s">
         <v>305</v>
@@ -10318,7 +10321,7 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B61" t="s">
         <v>305</v>
@@ -10338,7 +10341,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B62" t="s">
         <v>25</v>
@@ -10358,7 +10361,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B63" t="s">
         <v>25</v>
@@ -10378,7 +10381,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B64" t="s">
         <v>181</v>
@@ -10398,7 +10401,7 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B65" t="s">
         <v>181</v>
@@ -10418,7 +10421,7 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B66" t="s">
         <v>305</v>
@@ -10438,7 +10441,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B67" t="s">
         <v>305</v>
@@ -10458,7 +10461,7 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B68" t="s">
         <v>25</v>
@@ -10478,7 +10481,7 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B69" t="s">
         <v>25</v>
@@ -10498,7 +10501,7 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B70" t="s">
         <v>181</v>
@@ -10518,7 +10521,7 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B71" t="s">
         <v>181</v>
@@ -10538,7 +10541,7 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B72" t="s">
         <v>305</v>
@@ -10558,7 +10561,7 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B73" t="s">
         <v>305</v>
@@ -10578,7 +10581,7 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B74" t="s">
         <v>25</v>
@@ -10598,7 +10601,7 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B75" t="s">
         <v>25</v>
@@ -10618,7 +10621,7 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B76" t="s">
         <v>181</v>
@@ -10638,7 +10641,7 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B77" t="s">
         <v>181</v>
@@ -10658,7 +10661,7 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B78" t="s">
         <v>305</v>
@@ -10678,7 +10681,7 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B79" t="s">
         <v>305</v>
@@ -10698,7 +10701,7 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B80" t="s">
         <v>25</v>
@@ -10718,7 +10721,7 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B81" t="s">
         <v>25</v>
@@ -10738,7 +10741,7 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B82" t="s">
         <v>181</v>
@@ -10758,7 +10761,7 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B83" t="s">
         <v>181</v>
@@ -10778,7 +10781,7 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B84" t="s">
         <v>305</v>
@@ -10798,7 +10801,7 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B85" t="s">
         <v>305</v>
@@ -10818,7 +10821,7 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B86" t="s">
         <v>25</v>
@@ -10838,7 +10841,7 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B87" t="s">
         <v>25</v>
@@ -10858,7 +10861,7 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B88" t="s">
         <v>181</v>
@@ -10878,7 +10881,7 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B89" t="s">
         <v>181</v>
@@ -10898,7 +10901,7 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B90" t="s">
         <v>305</v>
@@ -10918,7 +10921,7 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B91" t="s">
         <v>305</v>
@@ -10938,7 +10941,7 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B92" t="s">
         <v>25</v>
@@ -10958,7 +10961,7 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B93" t="s">
         <v>25</v>
@@ -10978,7 +10981,7 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B94" t="s">
         <v>181</v>
@@ -10998,7 +11001,7 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B95" t="s">
         <v>181</v>
@@ -11018,7 +11021,7 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B96" t="s">
         <v>305</v>
@@ -11038,7 +11041,7 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B97" t="s">
         <v>305</v>
@@ -11058,7 +11061,7 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B98" t="s">
         <v>25</v>
@@ -11078,7 +11081,7 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B99" t="s">
         <v>25</v>
@@ -11098,7 +11101,7 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B100" t="s">
         <v>181</v>
@@ -11118,7 +11121,7 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B101" t="s">
         <v>181</v>
@@ -11138,7 +11141,7 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B102" t="s">
         <v>305</v>
@@ -11158,7 +11161,7 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B103" t="s">
         <v>305</v>
@@ -11178,7 +11181,7 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B104" t="s">
         <v>25</v>
@@ -11198,7 +11201,7 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B105" t="s">
         <v>25</v>
@@ -11218,7 +11221,7 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B106" t="s">
         <v>181</v>
@@ -11238,7 +11241,7 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B107" t="s">
         <v>181</v>
@@ -11258,7 +11261,7 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B108" t="s">
         <v>305</v>
@@ -11278,7 +11281,7 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B109" t="s">
         <v>305</v>
@@ -11298,7 +11301,7 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B110" t="s">
         <v>25</v>
@@ -11318,7 +11321,7 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B111" t="s">
         <v>25</v>
@@ -11338,7 +11341,7 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B112" t="s">
         <v>181</v>
@@ -11358,7 +11361,7 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B113" t="s">
         <v>181</v>
@@ -11378,7 +11381,7 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B114" t="s">
         <v>305</v>
@@ -11398,7 +11401,7 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B115" t="s">
         <v>305</v>
@@ -11418,7 +11421,7 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B116" t="s">
         <v>25</v>
@@ -11438,7 +11441,7 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B117" t="s">
         <v>25</v>
@@ -11458,7 +11461,7 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B118" t="s">
         <v>181</v>
@@ -11478,7 +11481,7 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B119" t="s">
         <v>181</v>
@@ -11498,7 +11501,7 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B120" t="s">
         <v>305</v>
@@ -11518,7 +11521,7 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B121" t="s">
         <v>305</v>
@@ -11538,7 +11541,7 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B122" t="s">
         <v>25</v>
@@ -11558,7 +11561,7 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B123" t="s">
         <v>25</v>
@@ -11578,7 +11581,7 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B124" t="s">
         <v>181</v>
@@ -11598,7 +11601,7 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B125" t="s">
         <v>181</v>
@@ -11618,7 +11621,7 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B126" t="s">
         <v>305</v>
@@ -11638,7 +11641,7 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B127" t="s">
         <v>305</v>
@@ -11658,7 +11661,7 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B128" t="s">
         <v>25</v>
@@ -11678,7 +11681,7 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B129" t="s">
         <v>25</v>
@@ -11698,7 +11701,7 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B130" t="s">
         <v>181</v>
@@ -11718,7 +11721,7 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B131" t="s">
         <v>181</v>
@@ -11738,7 +11741,7 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B132" t="s">
         <v>305</v>
@@ -11758,7 +11761,7 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B133" t="s">
         <v>305</v>
@@ -11778,7 +11781,7 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B134" t="s">
         <v>25</v>
@@ -11798,7 +11801,7 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B135" t="s">
         <v>25</v>
@@ -11818,7 +11821,7 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B136" t="s">
         <v>181</v>
@@ -11838,7 +11841,7 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B137" t="s">
         <v>181</v>
@@ -11858,7 +11861,7 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B138" t="s">
         <v>305</v>
@@ -11878,7 +11881,7 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B139" t="s">
         <v>305</v>
@@ -11898,7 +11901,7 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B140" t="s">
         <v>25</v>
@@ -11918,7 +11921,7 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B141" t="s">
         <v>25</v>
@@ -11938,7 +11941,7 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B142" t="s">
         <v>181</v>
@@ -11958,7 +11961,7 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B143" t="s">
         <v>181</v>
@@ -11978,7 +11981,7 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B144" t="s">
         <v>305</v>
@@ -11998,7 +12001,7 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B145" t="s">
         <v>305</v>
@@ -12018,7 +12021,7 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B146" t="s">
         <v>25</v>
@@ -12038,7 +12041,7 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B147" t="s">
         <v>25</v>
@@ -12058,7 +12061,7 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B148" t="s">
         <v>181</v>
@@ -12078,7 +12081,7 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B149" t="s">
         <v>181</v>
@@ -12098,7 +12101,7 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B150" t="s">
         <v>305</v>
@@ -12118,7 +12121,7 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B151" t="s">
         <v>305</v>
@@ -12138,7 +12141,7 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B152" t="s">
         <v>25</v>
@@ -12158,7 +12161,7 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B153" t="s">
         <v>25</v>
@@ -12178,7 +12181,7 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B154" t="s">
         <v>181</v>
@@ -12198,7 +12201,7 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B155" t="s">
         <v>181</v>
@@ -12218,7 +12221,7 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B156" t="s">
         <v>305</v>
@@ -12238,7 +12241,7 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B157" t="s">
         <v>305</v>
@@ -12258,7 +12261,7 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B158" t="s">
         <v>25</v>
@@ -12278,7 +12281,7 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B159" t="s">
         <v>25</v>
@@ -12298,7 +12301,7 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B160" t="s">
         <v>181</v>
@@ -12318,7 +12321,7 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B161" t="s">
         <v>181</v>
@@ -12338,7 +12341,7 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B162" t="s">
         <v>305</v>
@@ -12358,7 +12361,7 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B163" t="s">
         <v>305</v>
@@ -12378,7 +12381,7 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B164" t="s">
         <v>25</v>
@@ -12398,7 +12401,7 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B165" t="s">
         <v>25</v>
@@ -12418,7 +12421,7 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B166" t="s">
         <v>181</v>
@@ -12438,7 +12441,7 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B167" t="s">
         <v>181</v>
@@ -12458,7 +12461,7 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B168" t="s">
         <v>305</v>
@@ -12478,7 +12481,7 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B169" t="s">
         <v>305</v>
@@ -12498,7 +12501,7 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B170" t="s">
         <v>25</v>
@@ -12518,7 +12521,7 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B171" t="s">
         <v>25</v>
@@ -12538,7 +12541,7 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B172" t="s">
         <v>181</v>
@@ -12558,7 +12561,7 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B173" t="s">
         <v>181</v>
@@ -12578,7 +12581,7 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B174" t="s">
         <v>305</v>
@@ -12598,7 +12601,7 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B175" t="s">
         <v>305</v>
@@ -12618,7 +12621,7 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B176" t="s">
         <v>25</v>
@@ -12638,7 +12641,7 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B177" t="s">
         <v>25</v>
@@ -12658,7 +12661,7 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B178" t="s">
         <v>181</v>
@@ -12678,7 +12681,7 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B179" t="s">
         <v>181</v>
@@ -12698,7 +12701,7 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B180" t="s">
         <v>305</v>
@@ -12718,7 +12721,7 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B181" t="s">
         <v>305</v>
@@ -12738,7 +12741,7 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B182" t="s">
         <v>25</v>
@@ -12758,7 +12761,7 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B183" t="s">
         <v>25</v>
@@ -12778,7 +12781,7 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B184" t="s">
         <v>181</v>
@@ -12798,7 +12801,7 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B185" t="s">
         <v>181</v>
@@ -12818,7 +12821,7 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B186" t="s">
         <v>305</v>
@@ -12838,7 +12841,7 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B187" t="s">
         <v>305</v>

--- a/data_output/Excess Mortality/Countries/2020/2020_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_(30-34) - (35-39).xlsx
+++ b/data_output/Excess Mortality/Countries/2020/2020_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_(30-34) - (35-39).xlsx
@@ -295,7 +295,7 @@
     <t>0.6 (±5.6)</t>
   </si>
   <si>
-    <t>-0.6 (±4.2)</t>
+    <t>0.4 (±4.2)</t>
   </si>
   <si>
     <t>16.6 (±15.3)</t>
@@ -304,13 +304,13 @@
     <t>3.0 (±5.4)</t>
   </si>
   <si>
-    <t>-3.0 (±10.7)</t>
+    <t>-7.0 (±10.7)</t>
   </si>
   <si>
     <t>10.6 (±2.6)</t>
   </si>
   <si>
-    <t>-2.8 (±8.1)</t>
+    <t>-0.8 (±8.1)</t>
   </si>
   <si>
     <t>-15.8 (±18.8)</t>
@@ -388,7 +388,7 @@
     <t>0.6% (±5.4%)</t>
   </si>
   <si>
-    <t>-3.1% (±17.1%)</t>
+    <t>2.0% (±18.0%)</t>
   </si>
   <si>
     <t>5.3% (±4.9%)</t>
@@ -397,13 +397,13 @@
     <t>2.7% (±4.8%)</t>
   </si>
   <si>
-    <t>-5.9% (±16.3%)</t>
+    <t>-13.7% (±15.0%)</t>
   </si>
   <si>
     <t>8.4% (±2.2%)</t>
   </si>
   <si>
-    <t>-0.2% (±0.5%)</t>
+    <t>-0.1% (±0.5%)</t>
   </si>
   <si>
     <t>-6.8% (±7.0%)</t>
@@ -481,7 +481,7 @@
     <t>0.2(±2.2)</t>
   </si>
   <si>
-    <t>-0.8(±5.8)</t>
+    <t>0.6(±5.7)</t>
   </si>
   <si>
     <t>2.3(±2.1)</t>
@@ -490,13 +490,13 @@
     <t>0.9(±1.6)</t>
   </si>
   <si>
-    <t>-3.2(±11.4)</t>
+    <t>-7.5(±11.5)</t>
   </si>
   <si>
     <t>3.1(±0.7)</t>
   </si>
   <si>
-    <t>-0.1(±0.2)</t>
+    <t>-0.0(±0.2)</t>
   </si>
   <si>
     <t>-2.4(±2.9)</t>
@@ -625,7 +625,7 @@
     <t>538.8 (±18.2)</t>
   </si>
   <si>
-    <t>231.0 (±16.8)</t>
+    <t>231.2 (±17.0)</t>
   </si>
   <si>
     <t>4554.6 (±58.9)</t>
@@ -667,34 +667,34 @@
     <t>-11.8 (±12.3)</t>
   </si>
   <si>
-    <t>-2.6 (±3.4)</t>
-  </si>
-  <si>
-    <t>4.4 (±39.4)</t>
+    <t>-4.6 (±3.4)</t>
+  </si>
+  <si>
+    <t>5.4 (±39.4)</t>
   </si>
   <si>
     <t>1.4 (±8.5)</t>
   </si>
   <si>
-    <t>3.0 (±25.2)</t>
+    <t>-4.0 (±25.2)</t>
   </si>
   <si>
     <t>-4.0 (±9.0)</t>
   </si>
   <si>
-    <t>-29.2 (±65.0)</t>
+    <t>-26.2 (±65.0)</t>
   </si>
   <si>
     <t>-71.4 (±40.1)</t>
   </si>
   <si>
-    <t>-19.6 (±51.4)</t>
+    <t>-18.6 (±51.4)</t>
   </si>
   <si>
     <t>1.2 (±4.4)</t>
   </si>
   <si>
-    <t>-173.8 (±119.7)</t>
+    <t>-172.8 (±119.7)</t>
   </si>
   <si>
     <t>-64.4 (±31.2)</t>
@@ -718,7 +718,7 @@
     <t>76.2 (±18.2)</t>
   </si>
   <si>
-    <t>-2.0 (±16.8)</t>
+    <t>-1.2 (±17.0)</t>
   </si>
   <si>
     <t>417.4 (±58.9)</t>
@@ -760,28 +760,28 @@
     <t>-4.6% (±4.4%)</t>
   </si>
   <si>
-    <t>-6.9% (±7.7%)</t>
-  </si>
-  <si>
-    <t>0.6% (±5.3%)</t>
+    <t>-12.2% (±7.3%)</t>
+  </si>
+  <si>
+    <t>0.8% (±5.4%)</t>
   </si>
   <si>
     <t>0.7% (±4.1%)</t>
   </si>
   <si>
-    <t>2.0% (±14.5%)</t>
+    <t>-2.6% (±13.9%)</t>
   </si>
   <si>
     <t>-1.2% (±2.6%)</t>
   </si>
   <si>
-    <t>-0.8% (±1.9%)</t>
+    <t>-0.8% (±1.8%)</t>
   </si>
   <si>
     <t>-12.3% (±5.6%)</t>
   </si>
   <si>
-    <t>-2.8% (±6.8%)</t>
+    <t>-2.7% (±6.7%)</t>
   </si>
   <si>
     <t>4.8% (±15.8%)</t>
@@ -811,7 +811,7 @@
     <t>14.1% (±3.7%)</t>
   </si>
   <si>
-    <t>-0.9% (±6.7%)</t>
+    <t>-0.5% (±6.8%)</t>
   </si>
   <si>
     <t>9.2% (±1.4%)</t>
@@ -853,34 +853,34 @@
     <t>-4.3(±4.5)</t>
   </si>
   <si>
-    <t>-3.7(±4.8)</t>
-  </si>
-  <si>
-    <t>0.6(±5.1)</t>
+    <t>-6.5(±4.8)</t>
+  </si>
+  <si>
+    <t>0.7(±5.1)</t>
   </si>
   <si>
     <t>0.4(±2.4)</t>
   </si>
   <si>
-    <t>2.9(±24.6)</t>
+    <t>-3.9(±24.5)</t>
   </si>
   <si>
     <t>-1.1(±2.5)</t>
   </si>
   <si>
-    <t>-0.7(±1.6)</t>
+    <t>-0.6(±1.6)</t>
   </si>
   <si>
     <t>-10.7(±6.0)</t>
   </si>
   <si>
-    <t>-3.0(±7.9)</t>
+    <t>-2.9(±7.9)</t>
   </si>
   <si>
     <t>4.2(±15.2)</t>
   </si>
   <si>
-    <t>-5.0(±3.4)</t>
+    <t>-5.0(±3.5)</t>
   </si>
   <si>
     <t>-46.8(±22.7)</t>
@@ -904,7 +904,7 @@
     <t>7.0(±1.7)</t>
   </si>
   <si>
-    <t>-0.5(±4.5)</t>
+    <t>-0.3(±4.5)</t>
   </si>
   <si>
     <t>13.7(±1.9)</t>
@@ -1000,7 +1000,7 @@
     <t>884.0 (±10.4)</t>
   </si>
   <si>
-    <t>342.8 (±16.7)</t>
+    <t>343.0 (±16.7)</t>
   </si>
   <si>
     <t>5843.0 (±39.3)</t>
@@ -1042,34 +1042,34 @@
     <t>-11.2 (±17.7)</t>
   </si>
   <si>
-    <t>-3.2 (±6.7)</t>
-  </si>
-  <si>
-    <t>21.0 (±38.3)</t>
+    <t>-4.2 (±6.7)</t>
+  </si>
+  <si>
+    <t>22.0 (±38.3)</t>
   </si>
   <si>
     <t>4.4 (±13.1)</t>
   </si>
   <si>
-    <t>0.0 (±28.8)</t>
+    <t>-11.0 (±28.8)</t>
   </si>
   <si>
     <t>6.6 (±8.9)</t>
   </si>
   <si>
-    <t>-32.0 (±70.6)</t>
+    <t>-27.0 (±70.6)</t>
   </si>
   <si>
     <t>-87.2 (±56.4)</t>
   </si>
   <si>
-    <t>-16.2 (±65.1)</t>
+    <t>-15.2 (±65.1)</t>
   </si>
   <si>
     <t>4.4 (±5.7)</t>
   </si>
   <si>
-    <t>-314.4 (±172.4)</t>
+    <t>-313.4 (±172.4)</t>
   </si>
   <si>
     <t>-76.0 (±40.9)</t>
@@ -1093,7 +1093,7 @@
     <t>97.0 (±10.4)</t>
   </si>
   <si>
-    <t>-6.8 (±16.7)</t>
+    <t>-6.0 (±16.7)</t>
   </si>
   <si>
     <t>572.0 (±39.3)</t>
@@ -1135,34 +1135,34 @@
     <t>-3.2% (±4.6%)</t>
   </si>
   <si>
-    <t>-5.6% (±9.9%)</t>
-  </si>
-  <si>
-    <t>2.1% (±3.7%)</t>
+    <t>-7.3% (±9.8%)</t>
+  </si>
+  <si>
+    <t>2.2% (±3.7%)</t>
   </si>
   <si>
     <t>1.4% (±4.1%)</t>
   </si>
   <si>
-    <t>0.0% (±12.4%)</t>
+    <t>-5.4% (±11.8%)</t>
   </si>
   <si>
     <t>1.4% (±1.9%)</t>
   </si>
   <si>
-    <t>-0.6% (±1.4%)</t>
+    <t>-0.5% (±1.4%)</t>
   </si>
   <si>
     <t>-10.7% (±5.8%)</t>
   </si>
   <si>
-    <t>-1.6% (±5.9%)</t>
+    <t>-1.5% (±5.9%)</t>
   </si>
   <si>
     <t>13.5% (±16.9%)</t>
   </si>
   <si>
-    <t>-10.6% (±4.9%)</t>
+    <t>-10.5% (±4.9%)</t>
   </si>
   <si>
     <t>-16.9% (±6.9%)</t>
@@ -1186,7 +1186,7 @@
     <t>11.0% (±1.3%)</t>
   </si>
   <si>
-    <t>-2.0% (±4.5%)</t>
+    <t>-1.7% (±4.6%)</t>
   </si>
   <si>
     <t>9.8% (±0.7%)</t>
@@ -1228,28 +1228,28 @@
     <t>-2.1(±3.3)</t>
   </si>
   <si>
-    <t>-2.2(±4.6)</t>
-  </si>
-  <si>
-    <t>1.4(±2.6)</t>
+    <t>-2.9(±4.6)</t>
+  </si>
+  <si>
+    <t>1.5(±2.6)</t>
   </si>
   <si>
     <t>0.6(±1.9)</t>
   </si>
   <si>
-    <t>0.0(±14.7)</t>
+    <t>-5.6(±14.7)</t>
   </si>
   <si>
     <t>0.9(±1.3)</t>
   </si>
   <si>
-    <t>-0.4(±0.9)</t>
+    <t>-0.3(±0.8)</t>
   </si>
   <si>
     <t>-6.5(±4.2)</t>
   </si>
   <si>
-    <t>-1.3(±5.1)</t>
+    <t>-1.2(±5.1)</t>
   </si>
   <si>
     <t>8.2(±10.7)</t>
@@ -1279,7 +1279,7 @@
     <t>4.5(±0.5)</t>
   </si>
   <si>
-    <t>-0.9(±2.3)</t>
+    <t>-0.8(±2.3)</t>
   </si>
   <si>
     <t>9.5(±0.7)</t>
@@ -1868,7 +1868,7 @@
         <v>282</v>
       </c>
       <c r="I3">
-        <v>291.4000000000001</v>
+        <v>291.4</v>
       </c>
       <c r="J3">
         <v>15.6</v>
@@ -1880,10 +1880,10 @@
         <v>13.7</v>
       </c>
       <c r="M3">
-        <v>277.7000000000001</v>
+        <v>277.7</v>
       </c>
       <c r="N3">
-        <v>305.1000000000001</v>
+        <v>305.1</v>
       </c>
       <c r="O3">
         <v>-9.4</v>
@@ -1945,7 +1945,7 @@
         <v>309</v>
       </c>
       <c r="I4">
-        <v>312.9999999999999</v>
+        <v>313</v>
       </c>
       <c r="J4">
         <v>12.5</v>
@@ -1957,10 +1957,10 @@
         <v>11</v>
       </c>
       <c r="M4">
-        <v>301.9999999999999</v>
+        <v>302</v>
       </c>
       <c r="N4">
-        <v>323.9999999999999</v>
+        <v>324</v>
       </c>
       <c r="O4">
         <v>-4</v>
@@ -2022,7 +2022,7 @@
         <v>99</v>
       </c>
       <c r="I5">
-        <v>98.40000000000002</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="J5">
         <v>6.4</v>
@@ -2034,7 +2034,7 @@
         <v>5.6</v>
       </c>
       <c r="M5">
-        <v>92.80000000000003</v>
+        <v>92.80000000000001</v>
       </c>
       <c r="N5">
         <v>104</v>
@@ -2096,10 +2096,10 @@
         <v>24</v>
       </c>
       <c r="H6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I6">
-        <v>19.59999999999999</v>
+        <v>19.6</v>
       </c>
       <c r="J6">
         <v>4.8</v>
@@ -2114,19 +2114,19 @@
         <v>15.4</v>
       </c>
       <c r="N6">
-        <v>23.79999999999999</v>
+        <v>23.8</v>
       </c>
       <c r="O6">
-        <v>-0.6</v>
+        <v>0.4</v>
       </c>
       <c r="P6">
         <v>4.2</v>
       </c>
       <c r="Q6">
-        <v>-3.1</v>
+        <v>2</v>
       </c>
       <c r="R6">
-        <v>17.1</v>
+        <v>18</v>
       </c>
       <c r="S6" t="s">
         <v>61</v>
@@ -2141,10 +2141,10 @@
         <v>72453</v>
       </c>
       <c r="W6">
-        <v>-0.8</v>
+        <v>0.6</v>
       </c>
       <c r="X6">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Y6" t="s">
         <v>154</v>
@@ -2176,7 +2176,7 @@
         <v>327</v>
       </c>
       <c r="I7">
-        <v>310.3999999999999</v>
+        <v>310.4</v>
       </c>
       <c r="J7">
         <v>17.5</v>
@@ -2188,10 +2188,10 @@
         <v>15.3</v>
       </c>
       <c r="M7">
-        <v>295.0999999999999</v>
+        <v>295.1</v>
       </c>
       <c r="N7">
-        <v>325.6999999999999</v>
+        <v>325.7</v>
       </c>
       <c r="O7">
         <v>16.6</v>
@@ -2327,10 +2327,10 @@
         <v>51</v>
       </c>
       <c r="H9">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I9">
-        <v>50.99999999999999</v>
+        <v>51</v>
       </c>
       <c r="J9">
         <v>12.2</v>
@@ -2345,19 +2345,19 @@
         <v>40.3</v>
       </c>
       <c r="N9">
-        <v>61.69999999999999</v>
+        <v>61.7</v>
       </c>
       <c r="O9">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="P9">
         <v>10.7</v>
       </c>
       <c r="Q9">
-        <v>-5.9</v>
+        <v>-13.7</v>
       </c>
       <c r="R9">
-        <v>16.3</v>
+        <v>15</v>
       </c>
       <c r="S9" t="s">
         <v>64</v>
@@ -2372,10 +2372,10 @@
         <v>93659</v>
       </c>
       <c r="W9">
-        <v>-3.2</v>
+        <v>-7.5</v>
       </c>
       <c r="X9">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="Y9" t="s">
         <v>157</v>
@@ -2481,7 +2481,7 @@
         <v>1532</v>
       </c>
       <c r="H11">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="I11">
         <v>1556.8</v>
@@ -2502,13 +2502,13 @@
         <v>1564.9</v>
       </c>
       <c r="O11">
-        <v>-2.8</v>
+        <v>-0.8</v>
       </c>
       <c r="P11">
         <v>8.1</v>
       </c>
       <c r="Q11">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="R11">
         <v>0.5</v>
@@ -2526,7 +2526,7 @@
         <v>4280714</v>
       </c>
       <c r="W11">
-        <v>-0.1</v>
+        <v>-0</v>
       </c>
       <c r="X11">
         <v>0.2</v>
@@ -2573,7 +2573,7 @@
         <v>18.8</v>
       </c>
       <c r="M12">
-        <v>213.9999999999999</v>
+        <v>214</v>
       </c>
       <c r="N12">
         <v>251.6</v>
@@ -2650,7 +2650,7 @@
         <v>23.6</v>
       </c>
       <c r="M13">
-        <v>305.9999999999999</v>
+        <v>306</v>
       </c>
       <c r="N13">
         <v>353.2</v>
@@ -2715,7 +2715,7 @@
         <v>11</v>
       </c>
       <c r="I14">
-        <v>7.800000000000004</v>
+        <v>7.800000000000001</v>
       </c>
       <c r="J14">
         <v>2.9</v>
@@ -2727,7 +2727,7 @@
         <v>2.5</v>
       </c>
       <c r="M14">
-        <v>5.300000000000004</v>
+        <v>5.300000000000001</v>
       </c>
       <c r="N14">
         <v>10.3</v>
@@ -2804,7 +2804,7 @@
         <v>57.3</v>
       </c>
       <c r="M15">
-        <v>974.3000000000004</v>
+        <v>974.3</v>
       </c>
       <c r="N15">
         <v>1088.9</v>
@@ -2869,7 +2869,7 @@
         <v>88</v>
       </c>
       <c r="I16">
-        <v>99.60000000000002</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J16">
         <v>13.7</v>
@@ -2881,7 +2881,7 @@
         <v>12</v>
       </c>
       <c r="M16">
-        <v>87.60000000000002</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="N16">
         <v>111.6</v>
@@ -3254,7 +3254,7 @@
         <v>20</v>
       </c>
       <c r="I21">
-        <v>17.79999999999999</v>
+        <v>17.8</v>
       </c>
       <c r="J21">
         <v>2.3</v>
@@ -3266,10 +3266,10 @@
         <v>2</v>
       </c>
       <c r="M21">
-        <v>15.79999999999999</v>
+        <v>15.8</v>
       </c>
       <c r="N21">
-        <v>19.79999999999999</v>
+        <v>19.8</v>
       </c>
       <c r="O21">
         <v>2.2</v>
@@ -3870,7 +3870,7 @@
         <v>37</v>
       </c>
       <c r="I29">
-        <v>46.59999999999999</v>
+        <v>46.6</v>
       </c>
       <c r="J29">
         <v>4.4</v>
@@ -3882,10 +3882,10 @@
         <v>3.9</v>
       </c>
       <c r="M29">
-        <v>42.69999999999999</v>
+        <v>42.7</v>
       </c>
       <c r="N29">
-        <v>50.49999999999999</v>
+        <v>50.5</v>
       </c>
       <c r="O29">
         <v>-9.6</v>
@@ -4116,7 +4116,7 @@
         <v>141</v>
       </c>
       <c r="N32">
-        <v>163.3999999999999</v>
+        <v>163.4</v>
       </c>
       <c r="O32">
         <v>7.8</v>
@@ -4345,7 +4345,7 @@
         <v>566</v>
       </c>
       <c r="I3">
-        <v>572.9999999999999</v>
+        <v>573</v>
       </c>
       <c r="J3">
         <v>23.2</v>
@@ -4357,10 +4357,10 @@
         <v>20.3</v>
       </c>
       <c r="M3">
-        <v>552.6999999999999</v>
+        <v>552.7</v>
       </c>
       <c r="N3">
-        <v>593.2999999999998</v>
+        <v>593.3</v>
       </c>
       <c r="O3">
         <v>-7</v>
@@ -4573,10 +4573,10 @@
         <v>44</v>
       </c>
       <c r="H6">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I6">
-        <v>37.60000000000001</v>
+        <v>37.6</v>
       </c>
       <c r="J6">
         <v>3.9</v>
@@ -4588,22 +4588,22 @@
         <v>3.4</v>
       </c>
       <c r="M6">
-        <v>34.20000000000001</v>
+        <v>34.2</v>
       </c>
       <c r="N6">
-        <v>41.00000000000001</v>
+        <v>41</v>
       </c>
       <c r="O6">
-        <v>-2.6</v>
+        <v>-4.6</v>
       </c>
       <c r="P6">
         <v>3.4</v>
       </c>
       <c r="Q6">
-        <v>-6.9</v>
+        <v>-12.2</v>
       </c>
       <c r="R6">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="S6" t="s">
         <v>186</v>
@@ -4618,7 +4618,7 @@
         <v>71198</v>
       </c>
       <c r="W6">
-        <v>-3.7</v>
+        <v>-6.5</v>
       </c>
       <c r="X6">
         <v>4.8</v>
@@ -4650,10 +4650,10 @@
         <v>642</v>
       </c>
       <c r="H7">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="I7">
-        <v>703.5999999999999</v>
+        <v>703.6</v>
       </c>
       <c r="J7">
         <v>45</v>
@@ -4665,22 +4665,22 @@
         <v>39.4</v>
       </c>
       <c r="M7">
-        <v>664.1999999999999</v>
+        <v>664.2</v>
       </c>
       <c r="N7">
-        <v>742.9999999999999</v>
+        <v>743</v>
       </c>
       <c r="O7">
-        <v>4.4</v>
+        <v>5.4</v>
       </c>
       <c r="P7">
         <v>39.4</v>
       </c>
       <c r="Q7">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="R7">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="S7" t="s">
         <v>187</v>
@@ -4695,7 +4695,7 @@
         <v>767173</v>
       </c>
       <c r="W7">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="X7">
         <v>5.1</v>
@@ -4804,7 +4804,7 @@
         <v>112</v>
       </c>
       <c r="H9">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I9">
         <v>152</v>
@@ -4825,16 +4825,16 @@
         <v>177.2</v>
       </c>
       <c r="O9">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="P9">
         <v>25.2</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>-2.6</v>
       </c>
       <c r="R9">
-        <v>14.5</v>
+        <v>13.9</v>
       </c>
       <c r="S9" t="s">
         <v>189</v>
@@ -4849,10 +4849,10 @@
         <v>102693</v>
       </c>
       <c r="W9">
-        <v>2.9</v>
+        <v>-3.9</v>
       </c>
       <c r="X9">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="Y9" t="s">
         <v>281</v>
@@ -4884,7 +4884,7 @@
         <v>327</v>
       </c>
       <c r="I10">
-        <v>330.9999999999999</v>
+        <v>331</v>
       </c>
       <c r="J10">
         <v>10.3</v>
@@ -4896,10 +4896,10 @@
         <v>9</v>
       </c>
       <c r="M10">
-        <v>321.9999999999999</v>
+        <v>322</v>
       </c>
       <c r="N10">
-        <v>339.9999999999999</v>
+        <v>340</v>
       </c>
       <c r="O10">
         <v>-4</v>
@@ -4958,10 +4958,10 @@
         <v>3395</v>
       </c>
       <c r="H11">
-        <v>3421</v>
+        <v>3424</v>
       </c>
       <c r="I11">
-        <v>3450.200000000002</v>
+        <v>3450.2</v>
       </c>
       <c r="J11">
         <v>74.09999999999999</v>
@@ -4973,13 +4973,13 @@
         <v>65</v>
       </c>
       <c r="M11">
-        <v>3385.200000000002</v>
+        <v>3385.2</v>
       </c>
       <c r="N11">
-        <v>3515.200000000002</v>
+        <v>3515.2</v>
       </c>
       <c r="O11">
-        <v>-29.2</v>
+        <v>-26.2</v>
       </c>
       <c r="P11">
         <v>65</v>
@@ -4988,7 +4988,7 @@
         <v>-0.8</v>
       </c>
       <c r="R11">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S11" t="s">
         <v>191</v>
@@ -5003,7 +5003,7 @@
         <v>4048789</v>
       </c>
       <c r="W11">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="X11">
         <v>1.6</v>
@@ -5038,7 +5038,7 @@
         <v>511</v>
       </c>
       <c r="I12">
-        <v>582.4000000000002</v>
+        <v>582.4</v>
       </c>
       <c r="J12">
         <v>45.8</v>
@@ -5050,10 +5050,10 @@
         <v>40.1</v>
       </c>
       <c r="M12">
-        <v>542.3000000000002</v>
+        <v>542.3</v>
       </c>
       <c r="N12">
-        <v>622.5000000000002</v>
+        <v>622.5</v>
       </c>
       <c r="O12">
         <v>-71.40000000000001</v>
@@ -5112,10 +5112,10 @@
         <v>612</v>
       </c>
       <c r="H13">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="I13">
-        <v>691.5999999999999</v>
+        <v>691.6</v>
       </c>
       <c r="J13">
         <v>58.6</v>
@@ -5127,22 +5127,22 @@
         <v>51.4</v>
       </c>
       <c r="M13">
-        <v>640.1999999999999</v>
+        <v>640.2</v>
       </c>
       <c r="N13">
-        <v>742.9999999999999</v>
+        <v>743</v>
       </c>
       <c r="O13">
-        <v>-19.6</v>
+        <v>-18.6</v>
       </c>
       <c r="P13">
         <v>51.4</v>
       </c>
       <c r="Q13">
-        <v>-2.8</v>
+        <v>-2.7</v>
       </c>
       <c r="R13">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="S13" t="s">
         <v>193</v>
@@ -5157,7 +5157,7 @@
         <v>652020</v>
       </c>
       <c r="W13">
-        <v>-3</v>
+        <v>-2.9</v>
       </c>
       <c r="X13">
         <v>7.9</v>
@@ -5192,7 +5192,7 @@
         <v>26</v>
       </c>
       <c r="I14">
-        <v>24.79999999999998</v>
+        <v>24.8</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -5204,10 +5204,10 @@
         <v>4.4</v>
       </c>
       <c r="M14">
-        <v>20.39999999999998</v>
+        <v>20.4</v>
       </c>
       <c r="N14">
-        <v>29.19999999999998</v>
+        <v>29.2</v>
       </c>
       <c r="O14">
         <v>1.2</v>
@@ -5266,7 +5266,7 @@
         <v>1730</v>
       </c>
       <c r="H15">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="I15">
         <v>1944.8</v>
@@ -5287,7 +5287,7 @@
         <v>2064.5</v>
       </c>
       <c r="O15">
-        <v>-173.8</v>
+        <v>-172.8</v>
       </c>
       <c r="P15">
         <v>119.7</v>
@@ -5314,7 +5314,7 @@
         <v>-5</v>
       </c>
       <c r="X15">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y15" t="s">
         <v>287</v>
@@ -5346,7 +5346,7 @@
         <v>287</v>
       </c>
       <c r="I16">
-        <v>351.3999999999999</v>
+        <v>351.4</v>
       </c>
       <c r="J16">
         <v>35.6</v>
@@ -5358,10 +5358,10 @@
         <v>31.2</v>
       </c>
       <c r="M16">
-        <v>320.1999999999999</v>
+        <v>320.2</v>
       </c>
       <c r="N16">
-        <v>382.5999999999999</v>
+        <v>382.6</v>
       </c>
       <c r="O16">
         <v>-64.40000000000001</v>
@@ -5500,7 +5500,7 @@
         <v>436</v>
       </c>
       <c r="I18">
-        <v>480.2000000000001</v>
+        <v>480.2</v>
       </c>
       <c r="J18">
         <v>56.8</v>
@@ -5512,10 +5512,10 @@
         <v>49.8</v>
       </c>
       <c r="M18">
-        <v>430.4000000000001</v>
+        <v>430.4</v>
       </c>
       <c r="N18">
-        <v>530.0000000000001</v>
+        <v>530</v>
       </c>
       <c r="O18">
         <v>-44.2</v>
@@ -5577,7 +5577,7 @@
         <v>26</v>
       </c>
       <c r="I19">
-        <v>24.59999999999999</v>
+        <v>24.6</v>
       </c>
       <c r="J19">
         <v>2.1</v>
@@ -5589,10 +5589,10 @@
         <v>1.8</v>
       </c>
       <c r="M19">
-        <v>22.79999999999999</v>
+        <v>22.8</v>
       </c>
       <c r="N19">
-        <v>26.39999999999999</v>
+        <v>26.4</v>
       </c>
       <c r="O19">
         <v>1.4</v>
@@ -5654,7 +5654,7 @@
         <v>25</v>
       </c>
       <c r="I20">
-        <v>23.59999999999998</v>
+        <v>23.6</v>
       </c>
       <c r="J20">
         <v>2.2</v>
@@ -5666,10 +5666,10 @@
         <v>1.9</v>
       </c>
       <c r="M20">
-        <v>21.69999999999998</v>
+        <v>21.7</v>
       </c>
       <c r="N20">
-        <v>25.49999999999998</v>
+        <v>25.5</v>
       </c>
       <c r="O20">
         <v>1.4</v>
@@ -5731,7 +5731,7 @@
         <v>52</v>
       </c>
       <c r="I21">
-        <v>49.40000000000001</v>
+        <v>49.4</v>
       </c>
       <c r="J21">
         <v>6.8</v>
@@ -5743,10 +5743,10 @@
         <v>6</v>
       </c>
       <c r="M21">
-        <v>43.40000000000001</v>
+        <v>43.4</v>
       </c>
       <c r="N21">
-        <v>55.40000000000001</v>
+        <v>55.4</v>
       </c>
       <c r="O21">
         <v>2.6</v>
@@ -5876,43 +5876,43 @@
         <v>198</v>
       </c>
       <c r="F23">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G23">
         <v>222</v>
       </c>
       <c r="H23">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I23">
-        <v>231</v>
+        <v>231.2</v>
       </c>
       <c r="J23">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="K23">
         <v>1.96</v>
       </c>
       <c r="L23">
-        <v>16.8</v>
+        <v>17</v>
       </c>
       <c r="M23">
         <v>214.2</v>
       </c>
       <c r="N23">
-        <v>247.8</v>
+        <v>248.2</v>
       </c>
       <c r="O23">
-        <v>-2</v>
+        <v>-1.2</v>
       </c>
       <c r="P23">
-        <v>16.8</v>
+        <v>17</v>
       </c>
       <c r="Q23">
-        <v>-0.9</v>
+        <v>-0.5</v>
       </c>
       <c r="R23">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="S23" t="s">
         <v>202</v>
@@ -5927,7 +5927,7 @@
         <v>374420</v>
       </c>
       <c r="W23">
-        <v>-0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="X23">
         <v>4.5</v>
@@ -5962,7 +5962,7 @@
         <v>4972</v>
       </c>
       <c r="I24">
-        <v>4554.599999999998</v>
+        <v>4554.6</v>
       </c>
       <c r="J24">
         <v>67.2</v>
@@ -5974,10 +5974,10 @@
         <v>58.9</v>
       </c>
       <c r="M24">
-        <v>4495.699999999998</v>
+        <v>4495.700000000001</v>
       </c>
       <c r="N24">
-        <v>4613.499999999997</v>
+        <v>4613.5</v>
       </c>
       <c r="O24">
         <v>417.4</v>
@@ -6054,7 +6054,7 @@
         <v>437.6</v>
       </c>
       <c r="N25">
-        <v>510.8000000000001</v>
+        <v>510.8</v>
       </c>
       <c r="O25">
         <v>-12.2</v>
@@ -6501,7 +6501,7 @@
         <v>328</v>
       </c>
       <c r="I31">
-        <v>374.4000000000001</v>
+        <v>374.4</v>
       </c>
       <c r="J31">
         <v>22.6</v>
@@ -6513,10 +6513,10 @@
         <v>19.8</v>
       </c>
       <c r="M31">
-        <v>354.6000000000001</v>
+        <v>354.6</v>
       </c>
       <c r="N31">
-        <v>394.2000000000001</v>
+        <v>394.2</v>
       </c>
       <c r="O31">
         <v>-46.4</v>
@@ -6745,7 +6745,7 @@
         <v>600</v>
       </c>
       <c r="I2">
-        <v>538.3999999999997</v>
+        <v>538.4</v>
       </c>
       <c r="J2">
         <v>17</v>
@@ -6757,10 +6757,10 @@
         <v>14.9</v>
       </c>
       <c r="M2">
-        <v>523.4999999999998</v>
+        <v>523.5</v>
       </c>
       <c r="N2">
-        <v>553.2999999999997</v>
+        <v>553.3</v>
       </c>
       <c r="O2">
         <v>61.6</v>
@@ -6822,7 +6822,7 @@
         <v>848</v>
       </c>
       <c r="I3">
-        <v>864.4000000000002</v>
+        <v>864.4</v>
       </c>
       <c r="J3">
         <v>35</v>
@@ -6834,10 +6834,10 @@
         <v>30.7</v>
       </c>
       <c r="M3">
-        <v>833.7000000000002</v>
+        <v>833.6999999999999</v>
       </c>
       <c r="N3">
-        <v>895.1000000000003</v>
+        <v>895.1</v>
       </c>
       <c r="O3">
         <v>-16.4</v>
@@ -6976,7 +6976,7 @@
         <v>343</v>
       </c>
       <c r="I5">
-        <v>354.1999999999999</v>
+        <v>354.2</v>
       </c>
       <c r="J5">
         <v>20.2</v>
@@ -6988,10 +6988,10 @@
         <v>17.7</v>
       </c>
       <c r="M5">
-        <v>336.4999999999999</v>
+        <v>336.5</v>
       </c>
       <c r="N5">
-        <v>371.8999999999999</v>
+        <v>371.9</v>
       </c>
       <c r="O5">
         <v>-11.2</v>
@@ -7050,10 +7050,10 @@
         <v>68</v>
       </c>
       <c r="H6">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I6">
-        <v>57.19999999999998</v>
+        <v>57.2</v>
       </c>
       <c r="J6">
         <v>7.7</v>
@@ -7065,22 +7065,22 @@
         <v>6.7</v>
       </c>
       <c r="M6">
-        <v>50.49999999999998</v>
+        <v>50.5</v>
       </c>
       <c r="N6">
-        <v>63.89999999999998</v>
+        <v>63.90000000000001</v>
       </c>
       <c r="O6">
-        <v>-3.2</v>
+        <v>-4.2</v>
       </c>
       <c r="P6">
         <v>6.7</v>
       </c>
       <c r="Q6">
-        <v>-5.6</v>
+        <v>-7.3</v>
       </c>
       <c r="R6">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S6" t="s">
         <v>310</v>
@@ -7095,7 +7095,7 @@
         <v>143651</v>
       </c>
       <c r="W6">
-        <v>-2.2</v>
+        <v>-2.9</v>
       </c>
       <c r="X6">
         <v>4.6</v>
@@ -7127,7 +7127,7 @@
         <v>941</v>
       </c>
       <c r="H7">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="I7">
         <v>1014</v>
@@ -7142,19 +7142,19 @@
         <v>38.3</v>
       </c>
       <c r="M7">
-        <v>975.6999999999999</v>
+        <v>975.7</v>
       </c>
       <c r="N7">
         <v>1052.3</v>
       </c>
       <c r="O7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P7">
         <v>38.3</v>
       </c>
       <c r="Q7">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R7">
         <v>3.7</v>
@@ -7172,7 +7172,7 @@
         <v>1485125</v>
       </c>
       <c r="W7">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="X7">
         <v>2.6</v>
@@ -7219,7 +7219,7 @@
         <v>13.1</v>
       </c>
       <c r="M8">
-        <v>299.4999999999999</v>
+        <v>299.5</v>
       </c>
       <c r="N8">
         <v>325.7</v>
@@ -7281,10 +7281,10 @@
         <v>163</v>
       </c>
       <c r="H9">
+        <v>192</v>
+      </c>
+      <c r="I9">
         <v>203</v>
-      </c>
-      <c r="I9">
-        <v>202.9999999999999</v>
       </c>
       <c r="J9">
         <v>32.9</v>
@@ -7296,22 +7296,22 @@
         <v>28.8</v>
       </c>
       <c r="M9">
-        <v>174.1999999999999</v>
+        <v>174.2</v>
       </c>
       <c r="N9">
         <v>231.8</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="P9">
         <v>28.8</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>-5.4</v>
       </c>
       <c r="R9">
-        <v>12.4</v>
+        <v>11.8</v>
       </c>
       <c r="S9" t="s">
         <v>313</v>
@@ -7326,7 +7326,7 @@
         <v>196352</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>-5.6</v>
       </c>
       <c r="X9">
         <v>14.7</v>
@@ -7435,10 +7435,10 @@
         <v>4927</v>
       </c>
       <c r="H11">
-        <v>4975</v>
+        <v>4980</v>
       </c>
       <c r="I11">
-        <v>5006.999999999998</v>
+        <v>5007</v>
       </c>
       <c r="J11">
         <v>80.59999999999999</v>
@@ -7450,19 +7450,19 @@
         <v>70.59999999999999</v>
       </c>
       <c r="M11">
-        <v>4936.399999999998</v>
+        <v>4936.4</v>
       </c>
       <c r="N11">
-        <v>5077.599999999999</v>
+        <v>5077.6</v>
       </c>
       <c r="O11">
-        <v>-32</v>
+        <v>-27</v>
       </c>
       <c r="P11">
         <v>70.59999999999999</v>
       </c>
       <c r="Q11">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="R11">
         <v>1.4</v>
@@ -7480,10 +7480,10 @@
         <v>8329503</v>
       </c>
       <c r="W11">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="X11">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="Y11" t="s">
         <v>408</v>
@@ -7515,7 +7515,7 @@
         <v>728</v>
       </c>
       <c r="I12">
-        <v>815.1999999999999</v>
+        <v>815.2</v>
       </c>
       <c r="J12">
         <v>64.3</v>
@@ -7527,10 +7527,10 @@
         <v>56.4</v>
       </c>
       <c r="M12">
-        <v>758.8</v>
+        <v>758.8000000000001</v>
       </c>
       <c r="N12">
-        <v>871.5999999999999</v>
+        <v>871.6</v>
       </c>
       <c r="O12">
         <v>-87.2</v>
@@ -7589,7 +7589,7 @@
         <v>917</v>
       </c>
       <c r="H13">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="I13">
         <v>1021.2</v>
@@ -7610,13 +7610,13 @@
         <v>1086.3</v>
       </c>
       <c r="O13">
-        <v>-16.2</v>
+        <v>-15.2</v>
       </c>
       <c r="P13">
         <v>65.09999999999999</v>
       </c>
       <c r="Q13">
-        <v>-1.6</v>
+        <v>-1.5</v>
       </c>
       <c r="R13">
         <v>5.9</v>
@@ -7634,7 +7634,7 @@
         <v>1271926</v>
       </c>
       <c r="W13">
-        <v>-1.3</v>
+        <v>-1.2</v>
       </c>
       <c r="X13">
         <v>5.1</v>
@@ -7669,7 +7669,7 @@
         <v>37</v>
       </c>
       <c r="I14">
-        <v>32.59999999999998</v>
+        <v>32.6</v>
       </c>
       <c r="J14">
         <v>6.5</v>
@@ -7681,10 +7681,10 @@
         <v>5.7</v>
       </c>
       <c r="M14">
-        <v>26.89999999999998</v>
+        <v>26.9</v>
       </c>
       <c r="N14">
-        <v>38.29999999999998</v>
+        <v>38.3</v>
       </c>
       <c r="O14">
         <v>4.4</v>
@@ -7743,7 +7743,7 @@
         <v>2618</v>
       </c>
       <c r="H15">
-        <v>2662</v>
+        <v>2663</v>
       </c>
       <c r="I15">
         <v>2976.4</v>
@@ -7764,13 +7764,13 @@
         <v>3148.8</v>
       </c>
       <c r="O15">
-        <v>-314.4</v>
+        <v>-313.4</v>
       </c>
       <c r="P15">
         <v>172.4</v>
       </c>
       <c r="Q15">
-        <v>-10.6</v>
+        <v>-10.5</v>
       </c>
       <c r="R15">
         <v>4.9</v>
@@ -7823,7 +7823,7 @@
         <v>375</v>
       </c>
       <c r="I16">
-        <v>450.9999999999998</v>
+        <v>451</v>
       </c>
       <c r="J16">
         <v>46.7</v>
@@ -7835,10 +7835,10 @@
         <v>40.9</v>
       </c>
       <c r="M16">
-        <v>410.0999999999998</v>
+        <v>410.1</v>
       </c>
       <c r="N16">
-        <v>491.8999999999997</v>
+        <v>491.9</v>
       </c>
       <c r="O16">
         <v>-76</v>
@@ -7912,7 +7912,7 @@
         <v>0.7</v>
       </c>
       <c r="M17">
-        <v>0.8999999999999999</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="N17">
         <v>2.3</v>
@@ -8069,7 +8069,7 @@
         <v>34.3</v>
       </c>
       <c r="N19">
-        <v>38.09999999999999</v>
+        <v>38.1</v>
       </c>
       <c r="O19">
         <v>-0.2</v>
@@ -8131,7 +8131,7 @@
         <v>35</v>
       </c>
       <c r="I20">
-        <v>36.19999999999999</v>
+        <v>36.2</v>
       </c>
       <c r="J20">
         <v>4.1</v>
@@ -8143,10 +8143,10 @@
         <v>3.6</v>
       </c>
       <c r="M20">
-        <v>32.59999999999999</v>
+        <v>32.6</v>
       </c>
       <c r="N20">
-        <v>39.79999999999999</v>
+        <v>39.8</v>
       </c>
       <c r="O20">
         <v>-1.2</v>
@@ -8208,7 +8208,7 @@
         <v>72</v>
       </c>
       <c r="I21">
-        <v>67.19999999999999</v>
+        <v>67.2</v>
       </c>
       <c r="J21">
         <v>8.1</v>
@@ -8220,10 +8220,10 @@
         <v>7.1</v>
       </c>
       <c r="M21">
-        <v>60.09999999999999</v>
+        <v>60.1</v>
       </c>
       <c r="N21">
-        <v>74.29999999999998</v>
+        <v>74.3</v>
       </c>
       <c r="O21">
         <v>4.8</v>
@@ -8285,7 +8285,7 @@
         <v>981</v>
       </c>
       <c r="I22">
-        <v>884.0000000000002</v>
+        <v>884</v>
       </c>
       <c r="J22">
         <v>11.9</v>
@@ -8297,10 +8297,10 @@
         <v>10.4</v>
       </c>
       <c r="M22">
-        <v>873.6000000000003</v>
+        <v>873.6</v>
       </c>
       <c r="N22">
-        <v>894.4000000000002</v>
+        <v>894.4</v>
       </c>
       <c r="O22">
         <v>97</v>
@@ -8353,19 +8353,19 @@
         <v>303</v>
       </c>
       <c r="F23">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G23">
         <v>329</v>
       </c>
       <c r="H23">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I23">
-        <v>342.8000000000001</v>
+        <v>343</v>
       </c>
       <c r="J23">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="K23">
         <v>1.96</v>
@@ -8374,22 +8374,22 @@
         <v>16.7</v>
       </c>
       <c r="M23">
-        <v>326.1000000000001</v>
+        <v>326.3</v>
       </c>
       <c r="N23">
-        <v>359.5000000000001</v>
+        <v>359.7</v>
       </c>
       <c r="O23">
-        <v>-6.8</v>
+        <v>-6</v>
       </c>
       <c r="P23">
         <v>16.7</v>
       </c>
       <c r="Q23">
-        <v>-2</v>
+        <v>-1.7</v>
       </c>
       <c r="R23">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="S23" t="s">
         <v>327</v>
@@ -8404,7 +8404,7 @@
         <v>730547</v>
       </c>
       <c r="W23">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
       <c r="X23">
         <v>2.3</v>
@@ -8439,7 +8439,7 @@
         <v>6415</v>
       </c>
       <c r="I24">
-        <v>5843.000000000001</v>
+        <v>5843</v>
       </c>
       <c r="J24">
         <v>44.8</v>
@@ -8451,10 +8451,10 @@
         <v>39.3</v>
       </c>
       <c r="M24">
-        <v>5803.700000000001</v>
+        <v>5803.7</v>
       </c>
       <c r="N24">
-        <v>5882.300000000001</v>
+        <v>5882.3</v>
       </c>
       <c r="O24">
         <v>572</v>
@@ -8593,7 +8593,7 @@
         <v>2801</v>
       </c>
       <c r="I26">
-        <v>2751.799999999999</v>
+        <v>2751.8</v>
       </c>
       <c r="J26">
         <v>153</v>
@@ -8605,10 +8605,10 @@
         <v>134.1</v>
       </c>
       <c r="M26">
-        <v>2617.699999999999</v>
+        <v>2617.7</v>
       </c>
       <c r="N26">
-        <v>2885.899999999999</v>
+        <v>2885.9</v>
       </c>
       <c r="O26">
         <v>49.2</v>
@@ -8747,7 +8747,7 @@
         <v>691</v>
       </c>
       <c r="I28">
-        <v>695.3999999999997</v>
+        <v>695.4</v>
       </c>
       <c r="J28">
         <v>30.7</v>
@@ -8759,10 +8759,10 @@
         <v>26.9</v>
       </c>
       <c r="M28">
-        <v>668.4999999999998</v>
+        <v>668.5</v>
       </c>
       <c r="N28">
-        <v>722.2999999999997</v>
+        <v>722.3</v>
       </c>
       <c r="O28">
         <v>-4.4</v>
@@ -8836,7 +8836,7 @@
         <v>15.8</v>
       </c>
       <c r="M29">
-        <v>150.3999999999999</v>
+        <v>150.4</v>
       </c>
       <c r="N29">
         <v>182</v>
@@ -8916,7 +8916,7 @@
         <v>2446.6</v>
       </c>
       <c r="N30">
-        <v>2703.400000000001</v>
+        <v>2703.4</v>
       </c>
       <c r="O30">
         <v>2</v>
@@ -8978,7 +8978,7 @@
         <v>531</v>
       </c>
       <c r="I31">
-        <v>553.5999999999999</v>
+        <v>553.6</v>
       </c>
       <c r="J31">
         <v>22.9</v>
@@ -8990,10 +8990,10 @@
         <v>20.1</v>
       </c>
       <c r="M31">
-        <v>533.4999999999999</v>
+        <v>533.5</v>
       </c>
       <c r="N31">
-        <v>573.6999999999999</v>
+        <v>573.7</v>
       </c>
       <c r="O31">
         <v>-22.6</v>
